--- a/2019.xlsx
+++ b/2019.xlsx
@@ -1,125 +1,445 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3803308B-E957-4B33-AED0-AC27802F0968}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="写代码" sheetId="1" r:id="rId1"/>
     <sheet name="原理描述" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
     <t>ThreadPool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Netty</t>
+  </si>
+  <si>
+    <t>RPC</t>
   </si>
   <si>
     <t>Dubbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Zookeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>Mybatis</t>
   </si>
   <si>
     <t>Spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SpringBoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SpringMVC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MySql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mybatis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Future</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Netty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -127,24 +447,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -193,7 +800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -228,7 +835,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -402,212 +1009,208 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76F7747-1155-4828-A00D-3BF99D7E7118}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2019.xlsx
+++ b/2019.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123BAFA5-5E31-466E-BFCF-C2D72AE712D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43795AB1-F9D5-4C1A-B137-2232ACCE3201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="写代码" sheetId="1" r:id="rId1"/>
     <sheet name="原理描述" sheetId="2" r:id="rId2"/>
+    <sheet name="英语" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Thread</t>
   </si>
@@ -72,13 +73,163 @@
   </si>
   <si>
     <t>算法</t>
+  </si>
+  <si>
+    <t>马克思主义基本原理概论</t>
+  </si>
+  <si>
+    <t>1－8为必考课程，口译与听力为实践课，</t>
+  </si>
+  <si>
+    <t>上下半年各开考一次</t>
+  </si>
+  <si>
+    <t>中国近现代史纲要</t>
+  </si>
+  <si>
+    <t>第二外语（日语）</t>
+  </si>
+  <si>
+    <t>新编日语1</t>
+  </si>
+  <si>
+    <t>新编日语2</t>
+  </si>
+  <si>
+    <t>高级英语</t>
+  </si>
+  <si>
+    <t>高级英语(上册) </t>
+  </si>
+  <si>
+    <t>高级英语(下册)</t>
+  </si>
+  <si>
+    <t>英语翻译  </t>
+  </si>
+  <si>
+    <t>英汉互译教程</t>
+  </si>
+  <si>
+    <t>口译与听力（口译）</t>
+  </si>
+  <si>
+    <t>新编英语听力与口译</t>
+  </si>
+  <si>
+    <t>口译与听力（听力）</t>
+  </si>
+  <si>
+    <t> 与08681教材相同</t>
+  </si>
+  <si>
+    <t>英语写作</t>
+  </si>
+  <si>
+    <t>英美文学选读</t>
+  </si>
+  <si>
+    <t>现代语言学</t>
+  </si>
+  <si>
+    <t>英语语法</t>
+  </si>
+  <si>
+    <t>现代英语语法</t>
+  </si>
+  <si>
+    <t>英语词汇学</t>
+  </si>
+  <si>
+    <t>英语修辞学</t>
+  </si>
+  <si>
+    <t>英语修辞学概论（修订版）</t>
+  </si>
+  <si>
+    <t>英语（本科）毕业论文</t>
+  </si>
+  <si>
+    <t>不计学分</t>
+  </si>
+  <si>
+    <t>课程编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合英语（二）</t>
+  </si>
+  <si>
+    <t>综合英语(二)上册</t>
+  </si>
+  <si>
+    <t>综合英语(二)下册</t>
+  </si>
+  <si>
+    <t>听力</t>
+  </si>
+  <si>
+    <t>基础听力教程</t>
+  </si>
+  <si>
+    <t>口语</t>
+  </si>
+  <si>
+    <t>基础口语教程</t>
+  </si>
+  <si>
+    <t>学分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践性考核课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>序号 9－1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为选考课程，任选3门以上。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +250,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -116,13 +275,452 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -400,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,4 +1193,417 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD4CDB3-B17E-4234-A8CA-36295066A9B0}">
+  <dimension ref="A2:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>3709</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="17">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3708</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="19">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>840</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="21">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <v>600</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="21">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>87</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="19">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8681</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="8">
+        <v>8682</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>603</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>8</v>
+      </c>
+      <c r="B13" s="26">
+        <v>604</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="29">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14">
+        <v>830</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="17">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8">
+        <v>831</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="19">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8">
+        <v>832</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="19">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8">
+        <v>9075</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="19">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="30">
+        <v>13</v>
+      </c>
+      <c r="B18" s="31">
+        <v>795</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33">
+        <v>14</v>
+      </c>
+      <c r="B20" s="8">
+        <v>593</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="46">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>15</v>
+      </c>
+      <c r="B21" s="26">
+        <v>594</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
+        <v>16</v>
+      </c>
+      <c r="B22" s="36">
+        <v>10233</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2019.xlsx
+++ b/2019.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43795AB1-F9D5-4C1A-B137-2232ACCE3201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0386C130-F045-4C7A-9C09-5245E3270C8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="写代码" sheetId="1" r:id="rId1"/>
     <sheet name="原理描述" sheetId="2" r:id="rId2"/>
-    <sheet name="英语" sheetId="3" r:id="rId3"/>
+    <sheet name="JVM" sheetId="6" r:id="rId3"/>
+    <sheet name="英语" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Thread</t>
   </si>
@@ -87,39 +88,24 @@
     <t>中国近现代史纲要</t>
   </si>
   <si>
-    <t>第二外语（日语）</t>
-  </si>
-  <si>
     <t>新编日语1</t>
   </si>
   <si>
     <t>新编日语2</t>
   </si>
   <si>
-    <t>高级英语</t>
-  </si>
-  <si>
     <t>高级英语(上册) </t>
   </si>
   <si>
     <t>高级英语(下册)</t>
   </si>
   <si>
-    <t>英语翻译  </t>
-  </si>
-  <si>
     <t>英汉互译教程</t>
   </si>
   <si>
-    <t>口译与听力（口译）</t>
-  </si>
-  <si>
     <t>新编英语听力与口译</t>
   </si>
   <si>
-    <t>口译与听力（听力）</t>
-  </si>
-  <si>
     <t> 与08681教材相同</t>
   </si>
   <si>
@@ -141,9 +127,6 @@
     <t>英语词汇学</t>
   </si>
   <si>
-    <t>英语修辞学</t>
-  </si>
-  <si>
     <t>英语修辞学概论（修订版）</t>
   </si>
   <si>
@@ -165,22 +148,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>综合英语（二）</t>
-  </si>
-  <si>
     <t>综合英语(二)上册</t>
   </si>
   <si>
     <t>综合英语(二)下册</t>
   </si>
   <si>
-    <t>听力</t>
-  </si>
-  <si>
     <t>基础听力教程</t>
-  </si>
-  <si>
-    <t>口语</t>
   </si>
   <si>
     <t>基础口语教程</t>
@@ -224,12 +198,143 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级英语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克思主义基本原理概论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现代语言学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二外语（日语）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国近现代史纲要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语写作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口译与听力（听力）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口译与听力（口译）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语翻译  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语词汇学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英美文学选读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语修辞学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合英语（二）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C计数器</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前线程执行的字节码的行号指示器。字节码解释器工作时就是通过改变这个计数器的值来选择下一条需要执行的字节码指令，分支，循环，跳转，异常处理，线程恢复等基础功能都需要依赖这个计数器来完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了线程切换后能恢复到正确的执行位置，每条行程都需要有一个独立的程序计数器，各条线程之间计数器互不影响，独立存储。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +363,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -579,11 +691,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -611,12 +835,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -624,9 +842,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -638,21 +853,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -660,21 +860,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -696,20 +884,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -721,6 +895,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1196,11 +1461,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD4CDB3-B17E-4234-A8CA-36295066A9B0}">
-  <dimension ref="A2:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D738E2-530D-4315-A848-87E26EC6D5B9}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD4CDB3-B17E-4234-A8CA-36295066A9B0}">
+  <dimension ref="A2:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1210,381 +1506,532 @@
     <col min="3" max="3" width="23.5" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="J2" s="35"/>
+      <c r="K2" s="36">
+        <v>43568</v>
+      </c>
+      <c r="L2" s="37">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="55">
         <v>3709</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <v>4</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="J3" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="57">
         <v>3708</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>20</v>
+      <c r="C4" s="58" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="J4" s="41"/>
+      <c r="K4" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="75">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="71">
         <v>840</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="E5" s="61">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
+      <c r="J5" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="75"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
+        <v>4</v>
+      </c>
+      <c r="B7" s="71">
+        <v>600</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="E7" s="61">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36">
+        <v>43575</v>
+      </c>
+      <c r="L7" s="37">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="60"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="2"/>
+      <c r="J8" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="57">
+        <v>87</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="16">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="J9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="75">
+        <v>6</v>
+      </c>
+      <c r="B10" s="57">
+        <v>8681</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="75"/>
+      <c r="B11" s="57">
+        <v>8682</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36">
+        <v>43582</v>
+      </c>
+      <c r="L11" s="37">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>7</v>
+      </c>
+      <c r="B12" s="57">
+        <v>603</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
-        <v>600</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="21">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8">
-        <v>87</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="F12" s="2"/>
+      <c r="J12" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>8</v>
+      </c>
+      <c r="B13" s="18">
+        <v>604</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="20">
         <v>6</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8">
-        <v>8681</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="F13" s="2"/>
+      <c r="J13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>9</v>
+      </c>
+      <c r="B14" s="12">
+        <v>830</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="19">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="8">
-        <v>8682</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="19">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
-        <v>7</v>
-      </c>
-      <c r="B12" s="8">
-        <v>603</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="E14" s="14">
         <v>4</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>8</v>
-      </c>
-      <c r="B13" s="26">
-        <v>604</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="29">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>9</v>
-      </c>
-      <c r="B14" s="14">
-        <v>830</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="17">
-        <v>4</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>10</v>
       </c>
       <c r="B15" s="8">
         <v>831</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="19">
+        <v>32</v>
+      </c>
+      <c r="E15" s="16">
         <v>4</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
         <v>11</v>
       </c>
       <c r="B16" s="8">
         <v>832</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>38</v>
+      <c r="C16" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="19">
+        <v>33</v>
+      </c>
+      <c r="E16" s="16">
         <v>4</v>
       </c>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="J16" s="35"/>
+      <c r="K16" s="36">
+        <v>43757</v>
+      </c>
+      <c r="L16" s="37">
+        <v>43758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>12</v>
       </c>
       <c r="B17" s="8">
         <v>9075</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
+      <c r="C17" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="16">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="J17" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="63">
+        <v>13</v>
+      </c>
+      <c r="B18" s="65">
+        <v>795</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="19">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
-        <v>13</v>
-      </c>
-      <c r="B18" s="31">
-        <v>795</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="44">
+      <c r="E18" s="69">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="45"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33">
+      <c r="J18" s="41"/>
+      <c r="K18" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="64"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="70"/>
+      <c r="J19" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
         <v>14</v>
       </c>
       <c r="B20" s="8">
         <v>593</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="46">
+      <c r="C20" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="28">
         <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="18">
         <v>594</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="47">
+      <c r="C21" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
+      <c r="J21" s="35"/>
+      <c r="K21" s="36">
+        <v>43764</v>
+      </c>
+      <c r="L21" s="37">
+        <v>43765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
         <v>16</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="24">
         <v>10233</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
+      <c r="C22" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J23" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J25" s="35"/>
+      <c r="K25" s="36">
+        <v>43771</v>
+      </c>
+      <c r="L25" s="37">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
+      <c r="J26" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="49"/>
+      <c r="L26" s="51"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J27" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="52"/>
+      <c r="L27" s="47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J28" s="41"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="43" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -1,80 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0386C130-F045-4C7A-9C09-5245E3270C8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C42B5F0-4210-4C4D-A5CE-502BAF8CE957}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="写代码" sheetId="1" r:id="rId1"/>
-    <sheet name="原理描述" sheetId="2" r:id="rId2"/>
-    <sheet name="JVM" sheetId="6" r:id="rId3"/>
-    <sheet name="英语" sheetId="3" r:id="rId4"/>
+    <sheet name="技术列表" sheetId="9" r:id="rId1"/>
+    <sheet name="mybatis" sheetId="2" r:id="rId2"/>
+    <sheet name="spring" sheetId="10" r:id="rId3"/>
+    <sheet name="springmvc" sheetId="11" r:id="rId4"/>
+    <sheet name="mysql" sheetId="12" r:id="rId5"/>
+    <sheet name="JVM5大块说明" sheetId="6" r:id="rId6"/>
+    <sheet name="JVM对象创建" sheetId="7" r:id="rId7"/>
+    <sheet name="对象内存布局" sheetId="8" r:id="rId8"/>
+    <sheet name="英语" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
-  <si>
-    <t>Thread</t>
-  </si>
-  <si>
-    <t>Queue</t>
-  </si>
-  <si>
-    <t>Future</t>
-  </si>
-  <si>
-    <t>ThreadPool</t>
-  </si>
-  <si>
-    <t>IO</t>
-  </si>
-  <si>
-    <t>Netty</t>
-  </si>
-  <si>
-    <t>RPC</t>
-  </si>
-  <si>
-    <t>Dubbo</t>
-  </si>
-  <si>
-    <t>Zookeeper</t>
-  </si>
-  <si>
-    <t>JVM</t>
-  </si>
-  <si>
-    <t>Redis</t>
-  </si>
-  <si>
-    <t>Mybatis</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>SpringBoot</t>
-  </si>
-  <si>
-    <t>SpringMVC</t>
-  </si>
-  <si>
-    <t>MySql</t>
-  </si>
-  <si>
-    <t>算法</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="314">
   <si>
     <t>马克思主义基本原理概论</t>
   </si>
@@ -137,15 +91,15 @@
   </si>
   <si>
     <t>课程编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>课程名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>教材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>综合英语(二)上册</t>
@@ -161,15 +115,15 @@
   </si>
   <si>
     <t>学分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实践性考核课程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -196,7 +150,7 @@
       </rPr>
       <t>为选考课程，任选3门以上。</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -213,15 +167,15 @@
       </rPr>
       <t>M</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高级英语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>马克思主义基本原理概论</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -238,71 +192,71 @@
       </rPr>
       <t>M</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>现代语言学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第二外语（日语）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国近现代史纲要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英语写作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>口译与听力（听力）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>口译与听力（口译）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英语翻译  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英语词汇学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英美文学选读</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英语修辞学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>综合英语（二）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>听力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>口语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -319,32 +273,1169 @@
       </rPr>
       <t>C计数器</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前线程执行的字节码的行号指示器。字节码解释器工作时就是通过改变这个计数器的值来选择下一条需要执行的字节码指令，分支，循环，跳转，异常处理，线程恢复等基础功能都需要依赖这个计数器来完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了线程切换后能恢复到正确的执行位置，每条行程都需要有一个独立的程序计数器，各条线程之间计数器互不影响，独立存储。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前线程执行的字节码的行号指示器。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节码解释器工作时就是通过改变这个计数器的值来选择下一条需要执行的字节码指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支，循环，跳转，异常处理，线程恢复等基础功能都需要依赖这个计数器来完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA虚拟机的多线程 是通过 现场轮流切换并分配处理器执行时间的方式来实现的，任何一个时刻一个处理器只会执行一条线程中的指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA虚拟机栈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此，为了线程切换后能恢复到正确的执行位置，每条线程都需要有一个独立的程序计数器，各条线程之间计数器互不影响，独立存储，是线程私有的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个方法在执行的同时都会创建一个栈帧，用来存储局部变量表，操作数栈，动态链接，方法出口信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部变量表：boolean,byte,char,short,int,float,long,double</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个方法从调用直至执行完成的过程，就对应着一个栈帧在虚拟机栈中入栈到出栈的过程。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StackOverflowError：线程请求的栈深度大于虚拟机所允许的深度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutOfMemoryError：动态扩展无法申请到最够的内存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地方发栈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机栈为虚拟机执行JAVA方法（字节码）服务，是线程私有的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地方法栈为虚拟机使用到的Native方法服务，其他和JAVA虚拟机栈一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA堆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有线程共享的一块内存区域，虚拟机启动的时候创建的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA堆的唯一目的就是存放对象实例，几乎所有的对象实例都在这里分配内存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾收集器管理的主要区域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程共享的内存区域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储已被虚拟机加载的类信息，常量，静态变量，即时编译器编译后的代码等数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时的常量池</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是方法区的一部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class中除了有类的版本，字段，方法，接口，描述信息，还有一项信息是常量池</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于存放编译期生成的各种字面量和符号引用，这部分内容就在加载后进入方法区的运行时常量池中存放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机遇到一条new指令时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查这个指令的参数是否能在常量池中定位到一个类的符号引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查这个符号引用代表的类是否已经被加载，解析，初始化过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有就要执行相应的类加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载检查通过后，虚拟机将为新生对象分配内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象分配空间的任务等同于把一块确定大小的内存从Java堆中划分出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配内存方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间放着一个指针作为分界点的指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把指针指向空闲空间那边挪动一段与对象大小相等的距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针碰撞法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用过的内存都放在一边，空闲的内存放在另一边，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机维护一个列表，记录上那些内存块是可用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并更新列表上的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在分配的时候从列表中找到一块足够大的空间划分给对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在使用Serial、ParNew等带Compact过程的收集器时，系统采用的分配算法是指针碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用CMS这种基于Mark-Sweep算法的收集器时，通常采用空闲列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在并发情况下创建对象并不是线程安全的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在给对象A分配内存，指针还没来得及修改，对象B又同事使用了原来的指针来分配内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.CAS配上失败充实的方法保证更新操作的原子性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.每个线程在java堆中预先分配一小块内存TLAB，哪个线程要分配内存，就在哪个线程的TLAB上分配，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有TLAB用完并分配新的TLAB时，才需要同步锁定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将分配到的内存空间都初始化为零值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机要对对象进行设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如对象时哪个类的实例，如何才能找到类的元数据信息，对象的哈希码，GC分代年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象在内存中存储的区域可以分为3块区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例数据Instance Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐填充 Padding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象头 Header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Mark Word用于存储对象自身的运行时数据，如HashCode，GC分代年龄，锁状态标志，线程持有的锁，偏向线程ID，偏向时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.类型的指针，对象指向它的类元数据的指针，虚拟机通过这个指针来确定这个对象时那个类的实例。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象头有两部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象真正存储的有效信息，也是在程序代码中所定义的各种类型的字段内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象的大小必须是8个字节的整数倍，当对象没有对齐时，就需要通过对齐填充来补全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongodb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringBoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringCloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastDFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网电商项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis架构分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架架构图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体执行流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlsession执行流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis源码分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config文件加载流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper文件加载流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlsource创建流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlsession执行流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取BoundSql流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数映射流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果集映射流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建者模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单工作模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程方法模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象工厂模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手写m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ybatis</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现配置文件加载流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现封装jdbc的执行流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心容器模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>core</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beans</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ontext</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>expression</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OP和设备模块</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据访问及集成模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EB模块</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报文消息模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test测试模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanFactory接口体系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinition接口体系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationContext接口体系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oc模块源码解析</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OC初始化流程</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eanDefinition加载注册流程</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I依赖注入流程</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aop流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aop标签解析流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AspectJAwareAdvisorAutoProxyCreator类的作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AspectJExpressionPointcut类的作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AspectJPointcutAdvisor类的作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态代理对象创建流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AspectJAwareAdvisorAutoProxyCreator类的实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AspectJExpressionPointcut类的实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring事务的实现原理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformTransactionManager接口体系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransactionStatus接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单工厂模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂方法模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象工厂模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdk动态代理模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cglib动态代理模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写框架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手把手编写spring框架之ioc模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手把手编写spring框架之aop模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架架构分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11步执行流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六大组件介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc框架源码解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现DispatcherServlet初始化流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现DispatcherServlet执行流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现HandlerMapping执行流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现HandlerAdapter执行流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手写springMVC框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql语法顺序和解析顺序的理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql框架分析和执行流程分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑架构图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务区管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询优化器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可插拔存储引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单执行流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细执行流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流存储结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用查询日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢查询日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做redo日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回滚undo日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中继日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnoDB数据文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyISAM数据文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引劣势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单列索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全文索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引原理分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引存储结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多用组合索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引使用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引失效分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁和事物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL锁的介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表级锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行级锁InnoDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDL元数据锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行锁原理分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单SQL的加锁分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂SQL的加锁分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死锁原理分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务流程分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回滚流程undo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做流程redo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnoDB架构分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构图分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存结构分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁盘文件分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnoDB一致性非锁定读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致性非锁定读的机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVCC多版本并发控制原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnoDB的MVCC实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnoDB事务分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子性，一致性，持久性原理分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔离性原理分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能分析篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能分析思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢查询日志分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何时开启慢查询日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置慢查询超时时间多长何时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析慢查询日志的工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询计划分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile性能分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能优化篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器层面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL设计层面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语句优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从复制和读写分离集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从复制集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写分离集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分库分表篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分库分表策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mycat集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心概念介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十种常见分片规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mycat集群大件与分库分表应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mycat读写分离方式设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户购物下单实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>java基础</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -807,17 +1898,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -895,44 +1985,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -959,7 +2064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -977,10 +2082,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1260,238 +2365,1765 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2207D4EF-BD6D-4919-8DD6-1203FDD8119F}">
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="5">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A1:A17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E145A173-EB2D-4AE6-9CC2-A9B967C2FA09}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="58"/>
+    <col min="3" max="3" width="30.5" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="58" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="61"/>
+      <c r="B36" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A37"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5082D53-3B19-4F67-AAF9-28996D2E3F29}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A1:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC09236C-E04C-4772-84AE-00E1AA778E04}">
+  <dimension ref="A1:E68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="59"/>
+      <c r="B35" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="59"/>
+      <c r="B51" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="59"/>
+      <c r="B57" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="59"/>
+      <c r="B60" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="59"/>
+      <c r="B62" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="A1:A68"/>
+    <mergeCell ref="B21:B34"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B68"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D738E2-530D-4315-A848-87E26EC6D5B9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>68</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A5E47C-9A97-4868-BF5F-8FA49EB5BD3D}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9410EDFD-6C85-4D99-92A4-7B8911549147}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD4CDB3-B17E-4234-A8CA-36295066A9B0}">
   <dimension ref="A2:L28"/>
   <sheetViews>
@@ -1501,9 +4133,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
@@ -1511,484 +4143,484 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35">
+        <v>43568</v>
+      </c>
+      <c r="L2" s="36">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="54">
+        <v>3709</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="J3" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="56">
+        <v>3708</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="79">
+        <v>3</v>
+      </c>
+      <c r="B5" s="75">
+        <v>840</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="65">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="79"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="63">
+        <v>4</v>
+      </c>
+      <c r="B7" s="75">
+        <v>600</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="65">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35">
+        <v>43575</v>
+      </c>
+      <c r="L7" s="36">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="64"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="1"/>
+      <c r="J8" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>5</v>
+      </c>
+      <c r="B9" s="56">
+        <v>87</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="15">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="J9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="79">
+        <v>6</v>
+      </c>
+      <c r="B10" s="56">
+        <v>8681</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="79"/>
+      <c r="B11" s="56">
+        <v>8682</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35">
+        <v>43582</v>
+      </c>
+      <c r="L11" s="36">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>7</v>
+      </c>
+      <c r="B12" s="56">
+        <v>603</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="15">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="J12" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>8</v>
+      </c>
+      <c r="B13" s="17">
+        <v>604</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="19">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="J13" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11">
+        <v>830</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="13">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7">
+        <v>831</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7">
+        <v>832</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="15">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35">
+        <v>43757</v>
+      </c>
+      <c r="L16" s="36">
+        <v>43758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
+        <v>9075</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="J17" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="67">
+        <v>13</v>
+      </c>
+      <c r="B18" s="69">
+        <v>795</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="73">
+        <v>10</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="68"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="74"/>
+      <c r="J19" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36">
-        <v>43568</v>
-      </c>
-      <c r="L2" s="37">
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="55">
-        <v>3709</v>
-      </c>
-      <c r="C3" s="56" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>593</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="27">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="17">
+        <v>594</v>
+      </c>
+      <c r="C21" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="14">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="J3" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="57">
-        <v>3708</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="16">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="28">
+        <v>8</v>
+      </c>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35">
+        <v>43764</v>
+      </c>
+      <c r="L21" s="36">
+        <v>43765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="23">
+        <v>10233</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="75">
-        <v>3</v>
-      </c>
-      <c r="B5" s="71">
-        <v>840</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="61">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="40"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="59">
-        <v>4</v>
-      </c>
-      <c r="B7" s="71">
-        <v>600</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="61">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="36">
-        <v>43575</v>
-      </c>
-      <c r="L7" s="37">
-        <v>43576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="2"/>
-      <c r="J8" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>5</v>
-      </c>
-      <c r="B9" s="57">
-        <v>87</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="16">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="J9" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="75">
-        <v>6</v>
-      </c>
-      <c r="B10" s="57">
-        <v>8681</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="16">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
-      <c r="B11" s="57">
-        <v>8682</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="16">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36">
-        <v>43582</v>
-      </c>
-      <c r="L11" s="37">
-        <v>43583</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
-        <v>7</v>
-      </c>
-      <c r="B12" s="57">
-        <v>603</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="16">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="J12" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>8</v>
-      </c>
-      <c r="B13" s="18">
-        <v>604</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="20">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="J13" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12">
-        <v>830</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="14">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8">
-        <v>831</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="16">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <v>11</v>
-      </c>
-      <c r="B16" s="8">
-        <v>832</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="16">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36">
-        <v>43757</v>
-      </c>
-      <c r="L16" s="37">
-        <v>43758</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>12</v>
-      </c>
-      <c r="B17" s="8">
-        <v>9075</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="16">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="J17" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="63">
-        <v>13</v>
-      </c>
-      <c r="B18" s="65">
-        <v>795</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="69">
-        <v>10</v>
-      </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="31" t="s">
+      <c r="J22" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="48"/>
+      <c r="L22" s="49" t="s">
         <v>41</v>
-      </c>
-      <c r="E19" s="70"/>
-      <c r="J19" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
-        <v>14</v>
-      </c>
-      <c r="B20" s="8">
-        <v>593</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="28">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>15</v>
-      </c>
-      <c r="B21" s="18">
-        <v>594</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="29">
-        <v>8</v>
-      </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36">
-        <v>43764</v>
-      </c>
-      <c r="L21" s="37">
-        <v>43765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>16</v>
-      </c>
-      <c r="B22" s="24">
-        <v>10233</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="50" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="J23" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
+      <c r="J23" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24"/>
@@ -1999,11 +4631,11 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36">
+      <c r="J25" s="34"/>
+      <c r="K25" s="35">
         <v>43771</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="36">
         <v>43772</v>
       </c>
     </row>
@@ -2011,26 +4643,26 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="J26" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="49"/>
-      <c r="L26" s="51"/>
+      <c r="J26" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="48"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J27" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="52"/>
-      <c r="L27" s="47" t="s">
-        <v>57</v>
+      <c r="J27" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="51"/>
+      <c r="L27" s="46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J28" s="41"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="43" t="s">
-        <v>66</v>
+      <c r="J28" s="40"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="42" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +4681,7 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C42B5F0-4210-4C4D-A5CE-502BAF8CE957}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C66A6C-B08F-425B-B2DD-F9D5A4AA1DD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技术列表" sheetId="9" r:id="rId1"/>
@@ -18,17 +18,14 @@
     <sheet name="spring" sheetId="10" r:id="rId3"/>
     <sheet name="springmvc" sheetId="11" r:id="rId4"/>
     <sheet name="mysql" sheetId="12" r:id="rId5"/>
-    <sheet name="JVM5大块说明" sheetId="6" r:id="rId6"/>
-    <sheet name="JVM对象创建" sheetId="7" r:id="rId7"/>
-    <sheet name="对象内存布局" sheetId="8" r:id="rId8"/>
-    <sheet name="英语" sheetId="3" r:id="rId9"/>
+    <sheet name="英语" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="244">
   <si>
     <t>马克思主义基本原理概论</t>
   </si>
@@ -256,299 +253,6 @@
   </si>
   <si>
     <t>口语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C计数器</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前线程执行的字节码的行号指示器。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节码解释器工作时就是通过改变这个计数器的值来选择下一条需要执行的字节码指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支，循环，跳转，异常处理，线程恢复等基础功能都需要依赖这个计数器来完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA虚拟机的多线程 是通过 现场轮流切换并分配处理器执行时间的方式来实现的，任何一个时刻一个处理器只会执行一条线程中的指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA虚拟机栈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>因此，为了线程切换后能恢复到正确的执行位置，每条线程都需要有一个独立的程序计数器，各条线程之间计数器互不影响，独立存储，是线程私有的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个方法在执行的同时都会创建一个栈帧，用来存储局部变量表，操作数栈，动态链接，方法出口信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>局部变量表：boolean,byte,char,short,int,float,long,double</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个方法从调用直至执行完成的过程，就对应着一个栈帧在虚拟机栈中入栈到出栈的过程。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StackOverflowError：线程请求的栈深度大于虚拟机所允许的深度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutOfMemoryError：动态扩展无法申请到最够的内存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地方发栈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机栈为虚拟机执行JAVA方法（字节码）服务，是线程私有的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地方法栈为虚拟机使用到的Native方法服务，其他和JAVA虚拟机栈一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA堆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有线程共享的一块内存区域，虚拟机启动的时候创建的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA堆的唯一目的就是存放对象实例，几乎所有的对象实例都在这里分配内存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾收集器管理的主要区域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程共享的内存区域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储已被虚拟机加载的类信息，常量，静态变量，即时编译器编译后的代码等数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时的常量池</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是方法区的一部分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class中除了有类的版本，字段，方法，接口，描述信息，还有一项信息是常量池</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于存放编译期生成的各种字面量和符号引用，这部分内容就在加载后进入方法区的运行时常量池中存放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机遇到一条new指令时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查这个指令的参数是否能在常量池中定位到一个类的符号引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查这个符号引用代表的类是否已经被加载，解析，初始化过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果没有就要执行相应的类加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类加载检查通过后，虚拟机将为新生对象分配内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象分配空间的任务等同于把一块确定大小的内存从Java堆中划分出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分配内存方式：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空闲列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间放着一个指针作为分界点的指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把指针指向空闲空间那边挪动一段与对象大小相等的距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指针碰撞法：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用过的内存都放在一边，空闲的内存放在另一边，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机维护一个列表，记录上那些内存块是可用的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并更新列表上的记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在分配的时候从列表中找到一块足够大的空间划分给对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在使用Serial、ParNew等带Compact过程的收集器时，系统采用的分配算法是指针碰撞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用CMS这种基于Mark-Sweep算法的收集器时，通常采用空闲列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在并发情况下创建对象并不是线程安全的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在给对象A分配内存，指针还没来得及修改，对象B又同事使用了原来的指针来分配内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决方法：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.CAS配上失败充实的方法保证更新操作的原子性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.每个线程在java堆中预先分配一小块内存TLAB，哪个线程要分配内存，就在哪个线程的TLAB上分配，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有TLAB用完并分配新的TLAB时，才需要同步锁定。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将分配到的内存空间都初始化为零值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机要对对象进行设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如对象时哪个类的实例，如何才能找到类的元数据信息，对象的哈希码，GC分代年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象在内存中存储的区域可以分为3块区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实例数据Instance Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对齐填充 Padding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象头 Header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Mark Word用于存储对象自身的运行时数据，如HashCode，GC分代年龄，锁状态标志，线程持有的锁，偏向线程ID，偏向时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.类型的指针，对象指向它的类元数据的指针，虚拟机通过这个指针来确定这个对象时那个类的实例。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象头有两部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实例数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象真正存储的有效信息，也是在程序代码中所定义的各种类型的字段内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对齐填充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象的大小必须是8个字节的整数倍，当对象没有对齐时，就需要通过对齐填充来补全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2368,100 +2072,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2207D4EF-BD6D-4919-8DD6-1203FDD8119F}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2486,131 +2193,131 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="59"/>
       <c r="B4" s="59" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="59"/>
       <c r="B11" s="59" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="59"/>
       <c r="B12" s="59"/>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="2" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="2" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="59"/>
       <c r="B16" s="60" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="59"/>
       <c r="B17" s="60"/>
       <c r="C17" s="2" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2643,16 +2350,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2660,7 +2367,7 @@
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
       <c r="D2" s="4" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2668,7 +2375,7 @@
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
       <c r="D3" s="4" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2676,77 +2383,77 @@
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
       <c r="D4" s="4" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="61"/>
       <c r="B5" s="61"/>
       <c r="C5" s="4" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="61"/>
       <c r="B6" s="61"/>
       <c r="C6" s="4" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="61"/>
       <c r="B7" s="61"/>
       <c r="C7" s="4" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="61"/>
       <c r="B8" s="61"/>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="61"/>
       <c r="B9" s="61"/>
       <c r="C9" s="4" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="61"/>
       <c r="B10" s="61" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="61"/>
       <c r="B11" s="61"/>
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="61"/>
       <c r="B12" s="61"/>
       <c r="C12" s="4" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
       <c r="B13" s="61" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2754,7 +2461,7 @@
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
       <c r="D14" s="4" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2762,17 +2469,17 @@
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
       <c r="D15" s="4" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="61"/>
       <c r="B16" s="61"/>
       <c r="C16" s="61" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2780,7 +2487,7 @@
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
       <c r="D17" s="4" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2788,7 +2495,7 @@
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
       <c r="D18" s="4" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2796,7 +2503,7 @@
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
       <c r="D19" s="4" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2804,7 +2511,7 @@
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
       <c r="D20" s="4" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2812,7 +2519,7 @@
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
       <c r="D21" s="4" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2820,17 +2527,17 @@
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
       <c r="D22" s="4" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="61"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2838,7 +2545,7 @@
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
       <c r="D24" s="4" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2846,19 +2553,19 @@
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
       <c r="D25" s="4" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="62" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2866,7 +2573,7 @@
       <c r="B27" s="62"/>
       <c r="C27" s="62"/>
       <c r="D27" s="4" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2874,7 +2581,7 @@
       <c r="B28" s="62"/>
       <c r="C28" s="62"/>
       <c r="D28" s="4" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2882,7 +2589,7 @@
       <c r="B29" s="62"/>
       <c r="C29" s="62"/>
       <c r="D29" s="4" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2890,20 +2597,20 @@
       <c r="B30" s="62"/>
       <c r="C30" s="62"/>
       <c r="D30" s="4" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="61"/>
       <c r="B31" s="62"/>
       <c r="C31" s="62" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2912,7 +2619,7 @@
       <c r="C32" s="62"/>
       <c r="D32" s="61"/>
       <c r="E32" s="58" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2920,7 +2627,7 @@
       <c r="B33" s="62"/>
       <c r="C33" s="62"/>
       <c r="D33" s="58" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2928,30 +2635,30 @@
       <c r="B34" s="62"/>
       <c r="C34" s="62"/>
       <c r="D34" s="58" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="62"/>
       <c r="C35" s="58" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="61"/>
       <c r="B36" s="62" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="61"/>
       <c r="B37" s="62"/>
       <c r="C37" s="58" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2991,80 +2698,80 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="59"/>
       <c r="B3" s="59" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="1" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="1" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="59" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="1" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="1" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3099,22 +2806,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="59"/>
       <c r="B2" s="59" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3122,7 +2829,7 @@
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
       <c r="D3" s="1" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3130,7 +2837,7 @@
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
       <c r="D4" s="1" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3138,7 +2845,7 @@
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
       <c r="D5" s="1" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3146,7 +2853,7 @@
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3154,7 +2861,7 @@
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3162,7 +2869,7 @@
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="1" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3170,17 +2877,17 @@
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
       <c r="D9" s="1" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3188,20 +2895,20 @@
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
       <c r="D11" s="1" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="59"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3210,7 +2917,7 @@
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
       <c r="E13" s="1" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3219,7 +2926,7 @@
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
       <c r="E14" s="1" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3228,7 +2935,7 @@
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="1" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3237,7 +2944,7 @@
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
       <c r="E16" s="1" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3246,7 +2953,7 @@
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
       <c r="E17" s="1" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3255,7 +2962,7 @@
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
       <c r="E18" s="1" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3263,10 +2970,10 @@
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3275,22 +2982,22 @@
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="1" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
       <c r="B21" s="59" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>247</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3299,7 +3006,7 @@
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
       <c r="E22" s="1" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3308,7 +3015,7 @@
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
       <c r="E23" s="1" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3316,10 +3023,10 @@
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3328,7 +3035,7 @@
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
       <c r="E25" s="1" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3337,7 +3044,7 @@
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
       <c r="E26" s="1" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3346,7 +3053,7 @@
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
       <c r="E27" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3354,10 +3061,10 @@
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
       <c r="D28" s="59" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>256</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3366,7 +3073,7 @@
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
       <c r="E29" s="1" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,17 +3082,17 @@
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
       <c r="E30" s="1" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="59"/>
       <c r="B31" s="59"/>
       <c r="C31" s="59" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3393,7 +3100,7 @@
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
       <c r="D32" s="1" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3401,7 +3108,7 @@
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
       <c r="D33" s="1" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3409,19 +3116,19 @@
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
       <c r="D34" s="1" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="59"/>
       <c r="B35" s="59" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3429,10 +3136,10 @@
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
       <c r="D36" s="59" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3441,17 +3148,17 @@
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
       <c r="E37" s="1" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3459,7 +3166,7 @@
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
       <c r="D39" s="1" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3467,17 +3174,17 @@
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
       <c r="D40" s="1" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -3485,17 +3192,17 @@
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
       <c r="D42" s="1" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
       <c r="C43" s="59" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3503,7 +3210,7 @@
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
       <c r="D44" s="1" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3511,17 +3218,17 @@
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
       <c r="D45" s="1" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="59"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -3529,7 +3236,7 @@
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
       <c r="D47" s="1" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3537,17 +3244,17 @@
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
       <c r="D48" s="1" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="59"/>
       <c r="B49" s="59"/>
       <c r="C49" s="59" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3555,26 +3262,26 @@
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
       <c r="D50" s="1" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="59"/>
       <c r="B51" s="59" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="59"/>
       <c r="B52" s="59"/>
       <c r="C52" s="59" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3582,7 +3289,7 @@
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
       <c r="D53" s="1" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3590,79 +3297,79 @@
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
       <c r="D54" s="1" t="s">
-        <v>293</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="1" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="59"/>
       <c r="B56" s="59"/>
       <c r="C56" s="1" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="59"/>
       <c r="B57" s="59" t="s">
-        <v>296</v>
+        <v>226</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="1" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
       <c r="C59" s="1" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="59"/>
       <c r="B60" s="59" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
       <c r="C61" s="1" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="59"/>
       <c r="B62" s="59" t="s">
-        <v>303</v>
+        <v>233</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>304</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3670,7 +3377,7 @@
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
       <c r="D64" s="1" t="s">
-        <v>307</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3678,7 +3385,7 @@
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="1" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -3686,7 +3393,7 @@
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="1" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3694,7 +3401,7 @@
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
       <c r="D67" s="1" t="s">
-        <v>310</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -3702,20 +3409,18 @@
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
       <c r="D68" s="1" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="A1:A68"/>
+    <mergeCell ref="B21:B34"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B68"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="B2:B20"/>
     <mergeCell ref="C21:C30"/>
@@ -3727,13 +3432,15 @@
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C52:C54"/>
-    <mergeCell ref="A1:A68"/>
-    <mergeCell ref="B21:B34"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C12:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3741,393 +3448,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D738E2-530D-4315-A848-87E26EC6D5B9}">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A5E47C-9A97-4868-BF5F-8FA49EB5BD3D}">
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9410EDFD-6C85-4D99-92A4-7B8911549147}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD4CDB3-B17E-4234-A8CA-36295066A9B0}">
   <dimension ref="A2:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:C19"/>
     </sheetView>
   </sheetViews>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C66A6C-B08F-425B-B2DD-F9D5A4AA1DD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC7EE45-1D4F-4B9A-9C5F-BB3829C12EC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="技术列表" sheetId="9" r:id="rId1"/>
-    <sheet name="mybatis" sheetId="2" r:id="rId2"/>
-    <sheet name="spring" sheetId="10" r:id="rId3"/>
-    <sheet name="springmvc" sheetId="11" r:id="rId4"/>
-    <sheet name="mysql" sheetId="12" r:id="rId5"/>
-    <sheet name="英语" sheetId="3" r:id="rId6"/>
+    <sheet name="计划" sheetId="13" r:id="rId1"/>
+    <sheet name="技术列表" sheetId="9" r:id="rId2"/>
+    <sheet name="mybatis" sheetId="2" r:id="rId3"/>
+    <sheet name="spring" sheetId="10" r:id="rId4"/>
+    <sheet name="springmvc" sheetId="11" r:id="rId5"/>
+    <sheet name="mysql" sheetId="12" r:id="rId6"/>
+    <sheet name="英语" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="249">
   <si>
     <t>马克思主义基本原理概论</t>
   </si>
@@ -142,6 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1130,6 +1132,52 @@
   <si>
     <t>java基础</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VM</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ava多线程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1147,6 +1195,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2069,11 +2118,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD07E05-2E10-4CA3-A99A-FF7F876DD64E}">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2207D4EF-BD6D-4919-8DD6-1203FDD8119F}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2177,7 +2270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2333,7 +2426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E145A173-EB2D-4AE6-9CC2-A9B967C2FA09}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -2682,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5082D53-3B19-4F67-AAF9-28996D2E3F29}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2786,7 +2879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC09236C-E04C-4772-84AE-00E1AA778E04}">
   <dimension ref="A1:E68"/>
   <sheetViews>
@@ -3414,13 +3507,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:A68"/>
-    <mergeCell ref="B21:B34"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C12:C20"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="B2:B20"/>
     <mergeCell ref="C21:C30"/>
@@ -3432,27 +3527,25 @@
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="A1:A68"/>
+    <mergeCell ref="B21:B34"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD4CDB3-B17E-4234-A8CA-36295066A9B0}">
   <dimension ref="A2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC7EE45-1D4F-4B9A-9C5F-BB3829C12EC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C62E12-AF1B-4D79-8C3C-DDFD43EB936F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="计划" sheetId="13" r:id="rId1"/>
+    <sheet name="算法" sheetId="13" r:id="rId1"/>
     <sheet name="技术列表" sheetId="9" r:id="rId2"/>
     <sheet name="mybatis" sheetId="2" r:id="rId3"/>
     <sheet name="spring" sheetId="10" r:id="rId4"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="252">
   <si>
     <t>马克思主义基本原理概论</t>
   </si>
@@ -282,19 +282,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网络通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dubbo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nginx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1134,8 +1126,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>技术栈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbitMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocketMQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>J</t>
+      <t>N</t>
     </r>
     <r>
       <rPr>
@@ -1146,45 +1162,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>VM</t>
+      <t>etty</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ava多线程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring Boot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring Cloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1214,6 +1213,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1223,7 +1229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1647,11 +1653,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1781,6 +1807,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1844,6 +1872,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2122,7 +2158,7 @@
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2131,29 +2167,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2163,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2207D4EF-BD6D-4919-8DD6-1203FDD8119F}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2174,95 +2200,201 @@
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="83" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C1" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="59"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="59"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="60"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="59"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="86" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B8" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="83" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="86" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="83" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="60"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="59"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="88" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="59"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="60"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="87" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="39"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="83" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="59"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="88" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="50"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="86" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2285,132 +2417,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2442,316 +2574,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="D1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="61" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="63" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61" t="s">
+      <c r="D13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="61" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="4" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="4" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="4" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="4" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="4" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="4" t="s">
+      <c r="C26" s="64" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62" t="s">
+      <c r="D26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="62" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="4" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="4" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="4" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="4" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="63" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62" t="s">
+      <c r="E31" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="61" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="58" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="58" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="58" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="58" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="58" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="58" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="63"/>
+      <c r="B36" s="64" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="58" t="s">
+      <c r="C36" s="58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
-      <c r="B36" s="62" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="58" t="s">
         <v>135</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="58" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2790,81 +2922,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59" t="s">
-        <v>147</v>
-      </c>
       <c r="C7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="1" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2898,624 +3030,622 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59" t="s">
+      <c r="D2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="59" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="61" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59" t="s">
+      <c r="E12" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="59" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="1" t="s">
+      <c r="C21" s="61" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59" t="s">
+      <c r="D21" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="E21" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="59" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="1" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="1" t="s">
+      <c r="C35" s="61" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59" t="s">
+      <c r="D35" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="59" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="1" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D38" s="1" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D41" s="1" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D43" s="1" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="1" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="1" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="1" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="61"/>
+      <c r="B51" s="61" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="1" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="1" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="61"/>
+      <c r="B57" s="61" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="1" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="1" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="61"/>
+      <c r="B60" s="61" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C60" s="1" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="61"/>
+      <c r="B62" s="61" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D63" s="1" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="1" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="1" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="1" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="1" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="A1:A68"/>
+    <mergeCell ref="B21:B34"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B68"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="B2:B20"/>
     <mergeCell ref="C21:C30"/>
@@ -3527,13 +3657,15 @@
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C52:C54"/>
-    <mergeCell ref="A1:A68"/>
-    <mergeCell ref="B21:B34"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C12:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3638,19 +3770,19 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="79">
+      <c r="A5" s="81">
         <v>3</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="77">
         <v>840</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="79" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="67">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -3663,29 +3795,29 @@
       <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="79"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="78"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="66"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="63">
+      <c r="A7" s="65">
         <v>4</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="77">
         <v>600</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="79" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="67">
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
@@ -3698,13 +3830,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="78"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="1"/>
       <c r="J8" s="47" t="s">
         <v>42</v>
@@ -3742,7 +3874,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="79">
+      <c r="A10" s="81">
         <v>6</v>
       </c>
       <c r="B10" s="56">
@@ -3760,7 +3892,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="79"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="56">
         <v>8682</v>
       </c>
@@ -3921,19 +4053,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="67">
+      <c r="A18" s="69">
         <v>13</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="71">
         <v>795</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="73" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="75">
         <v>10</v>
       </c>
       <c r="J18" s="40"/>
@@ -3945,13 +4077,13 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="68"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="76"/>
       <c r="J19" s="37" t="s">
         <v>34</v>
       </c>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C62E12-AF1B-4D79-8C3C-DDFD43EB936F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA47FBE7-A186-40A1-9307-1E8F56A948CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1809,69 +1809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1880,6 +1817,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2157,9 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD07E05-2E10-4CA3-A99A-FF7F876DD64E}">
   <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2201,13 +2199,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="61" t="s">
         <v>250</v>
       </c>
       <c r="D1" s="46" t="s">
@@ -2215,185 +2213,185 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="83"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="59"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="59"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="59"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="59"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="60"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="39"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="59"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="50"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="39"/>
     </row>
   </sheetData>
@@ -2417,10 +2415,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="69" t="s">
         <v>64</v>
       </c>
       <c r="C1" t="s">
@@ -2428,22 +2426,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
       <c r="C2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
       <c r="C3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69" t="s">
         <v>68</v>
       </c>
       <c r="C4" t="s">
@@ -2451,50 +2449,50 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
       <c r="C5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
       <c r="C6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
       <c r="C7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
       <c r="C8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
       <c r="C9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
       <c r="C10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69" t="s">
         <v>76</v>
       </c>
       <c r="C11" t="s">
@@ -2502,36 +2500,36 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
       <c r="C12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
       <c r="C13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2539,8 +2537,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="2" t="s">
         <v>84</v>
       </c>
@@ -2574,13 +2572,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="71" t="s">
         <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2588,67 +2586,67 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2656,25 +2654,25 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="71" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2682,25 +2680,25 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2708,57 +2706,57 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63" t="s">
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71" t="s">
         <v>115</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -2766,27 +2764,27 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="72" t="s">
         <v>120</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2794,44 +2792,44 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64" t="s">
+      <c r="A31" s="71"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="71" t="s">
         <v>127</v>
       </c>
       <c r="E31" s="58" t="s">
@@ -2839,40 +2837,40 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="63"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="58" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="58" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="72" t="s">
         <v>133</v>
       </c>
       <c r="C36" s="58" t="s">
@@ -2880,8 +2878,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="58" t="s">
         <v>135</v>
       </c>
@@ -2922,10 +2920,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="69" t="s">
         <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2933,15 +2931,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69" t="s">
         <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2949,29 +2947,29 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69" t="s">
         <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2979,22 +2977,22 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="1" t="s">
         <v>144</v>
       </c>
@@ -3030,7 +3028,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3038,11 +3036,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="69" t="s">
         <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3050,65 +3048,65 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69" t="s">
         <v>157</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3116,20 +3114,20 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="69" t="s">
         <v>161</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3137,64 +3135,64 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
       <c r="E18" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69" t="s">
         <v>169</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3202,23 +3200,23 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="69" t="s">
         <v>174</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3226,28 +3224,28 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69" t="s">
         <v>178</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3255,37 +3253,37 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69" t="s">
         <v>183</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -3293,27 +3291,27 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69" t="s">
         <v>187</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3321,35 +3319,35 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61" t="s">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="69" t="s">
         <v>193</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3357,10 +3355,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61" t="s">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69" t="s">
         <v>195</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3368,18 +3366,18 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61" t="s">
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69" t="s">
         <v>198</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3387,25 +3385,25 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61" t="s">
+      <c r="A41" s="69"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69" t="s">
         <v>202</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3413,17 +3411,17 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
       <c r="D42" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61" t="s">
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69" t="s">
         <v>205</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3431,25 +3429,25 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61" t="s">
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69" t="s">
         <v>209</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3457,25 +3455,25 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
       <c r="D48" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61" t="s">
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69" t="s">
         <v>213</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3483,16 +3481,16 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="61"/>
-      <c r="B51" s="61" t="s">
+      <c r="A51" s="69"/>
+      <c r="B51" s="69" t="s">
         <v>216</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3500,9 +3498,9 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="61"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61" t="s">
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69" t="s">
         <v>218</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3510,38 +3508,38 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="61"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
       <c r="D53" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
       <c r="D54" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="61"/>
-      <c r="B55" s="61"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
-      <c r="B56" s="61"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
-      <c r="B57" s="61" t="s">
+      <c r="A57" s="69"/>
+      <c r="B57" s="69" t="s">
         <v>224</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -3549,22 +3547,22 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
       <c r="C59" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61" t="s">
+      <c r="A60" s="69"/>
+      <c r="B60" s="69" t="s">
         <v>228</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3572,15 +3570,15 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61" t="s">
+      <c r="A62" s="69"/>
+      <c r="B62" s="69" t="s">
         <v>231</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3588,9 +3586,9 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61" t="s">
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69" t="s">
         <v>233</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3598,54 +3596,56 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
       <c r="D64" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
       <c r="D66" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="61"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="61"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="1" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:A68"/>
-    <mergeCell ref="B21:B34"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C12:C20"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="B2:B20"/>
     <mergeCell ref="C21:C30"/>
@@ -3657,15 +3657,13 @@
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="A1:A68"/>
+    <mergeCell ref="B21:B34"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3770,19 +3768,19 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="81">
+      <c r="A5" s="89">
         <v>3</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="85">
         <v>840</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="87" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="75">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -3795,29 +3793,29 @@
       <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="81"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="80"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="65">
+      <c r="A7" s="73">
         <v>4</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="85">
         <v>600</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="87" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="75">
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
@@ -3830,13 +3828,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="80"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="1"/>
       <c r="J8" s="47" t="s">
         <v>42</v>
@@ -3874,7 +3872,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="81">
+      <c r="A10" s="89">
         <v>6</v>
       </c>
       <c r="B10" s="56">
@@ -3892,7 +3890,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="81"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="56">
         <v>8682</v>
       </c>
@@ -4053,19 +4051,19 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="69">
+      <c r="A18" s="77">
         <v>13</v>
       </c>
-      <c r="B18" s="71">
+      <c r="B18" s="79">
         <v>795</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="81" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="83">
         <v>10</v>
       </c>
       <c r="J18" s="40"/>
@@ -4077,13 +4075,13 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="76"/>
+      <c r="E19" s="84"/>
       <c r="J19" s="37" t="s">
         <v>34</v>
       </c>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615" activeTab="7"/>
+    <workbookView windowWidth="25200" windowHeight="12165" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="算法" sheetId="13" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="mysql" sheetId="12" r:id="rId6"/>
     <sheet name="英语" sheetId="3" r:id="rId7"/>
     <sheet name="计算机科学与技术080901" sheetId="14" r:id="rId8"/>
+    <sheet name="行政管理120402" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="337">
   <si>
     <t>技术栈</t>
   </si>
@@ -1102,18 +1103,220 @@
   <si>
     <t>(04741)计算机网络原理</t>
   </si>
+  <si>
+    <t>任选一门</t>
+  </si>
+  <si>
+    <t>日语(二)</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>*(00318)公共政策 2010年版</t>
+  </si>
+  <si>
+    <t>*(00315)当代中国政治制度 2019年版</t>
+  </si>
+  <si>
+    <t>*(01848)公务员制度 2018年版</t>
+  </si>
+  <si>
+    <t>*(03708)中国近现代史纲要  2018年版</t>
+  </si>
+  <si>
+    <t>*(03709)马克思主义基本原理概论  2018年版</t>
+  </si>
+  <si>
+    <t>*(00277)行政管理学 2005年版</t>
+  </si>
+  <si>
+    <t>*(00034)社会学概论 2012年版</t>
+  </si>
+  <si>
+    <t>社会学概论</t>
+  </si>
+  <si>
+    <t>当代中国政治制度</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>西方政治制度</t>
+  </si>
+  <si>
+    <t>*(00320)领导科学 2011年版</t>
+  </si>
+  <si>
+    <t>*(00319)行政组织理论 2007年版</t>
+  </si>
+  <si>
+    <t>*(00316)西方政治制度 2011年版</t>
+  </si>
+  <si>
+    <t>*(00312)政治学概论 2008年版</t>
+  </si>
+  <si>
+    <t>公务员制度</t>
+  </si>
+  <si>
+    <t>*(03709)马克思主义基本原理概论 2018年版</t>
+  </si>
+  <si>
+    <t>*(00261)行政法学 2012年版</t>
+  </si>
+  <si>
+    <t>*(03708)中国近现代史纲要 2018年版</t>
+  </si>
+  <si>
+    <t>公共政策</t>
+  </si>
+  <si>
+    <t>行政组织理论</t>
+  </si>
+  <si>
+    <t>领导科学</t>
+  </si>
+  <si>
+    <t>行政法学</t>
+  </si>
+  <si>
+    <t>普通逻辑</t>
+  </si>
+  <si>
+    <t>序号12~22为选考课程，
+须选考2门及以上，达10
+学分及以上</t>
+  </si>
+  <si>
+    <t>法学概论</t>
+  </si>
+  <si>
+    <t>财务管理学</t>
+  </si>
+  <si>
+    <t>现代管理学</t>
+  </si>
+  <si>
+    <t>(00318)公共政策</t>
+  </si>
+  <si>
+    <t>企业管理概论</t>
+  </si>
+  <si>
+    <t>(00315)当代中国政治制度</t>
+  </si>
+  <si>
+    <t>行政管理学</t>
+  </si>
+  <si>
+    <t>(01848)公务员制度</t>
+  </si>
+  <si>
+    <t>政治学概论</t>
+  </si>
+  <si>
+    <t>(00277)行政管理学</t>
+  </si>
+  <si>
+    <t>中国文化概论</t>
+  </si>
+  <si>
+    <t>(00034)社会学概论</t>
+  </si>
+  <si>
+    <t>中国行政史</t>
+  </si>
+  <si>
+    <t>(00320)领导科学</t>
+  </si>
+  <si>
+    <t>西方行政学说史</t>
+  </si>
+  <si>
+    <t>(00319)行政组织理论</t>
+  </si>
+  <si>
+    <t>公文写作与处理</t>
+  </si>
+  <si>
+    <t>(00261)行政法学</t>
+  </si>
+  <si>
+    <t>行政管理学毕业论文</t>
+  </si>
+  <si>
+    <t>(00316)西方政治制度</t>
+  </si>
+  <si>
+    <t>说明：</t>
+  </si>
+  <si>
+    <t>(00312)政治学概论</t>
+  </si>
+  <si>
+    <t>1、已通过原高教自考“行政法学”课程的考生不能申请免考“行政法与行政诉讼法（一）”课程，但可不报考“行政法与行政诉讼法（一）”课程，用报考选考课程的方式补足总学分和总门数。</t>
+  </si>
+  <si>
+    <t>2、已通过原高教自考“逻辑”课程的考生，可申请免考“普通逻辑”课程。</t>
+  </si>
+  <si>
+    <t>3、高教自考行政管理专业（专科）毕业生，在报考本专业（独立本科段）中的选考课程时，不得重复报考其专科专业中已经考试通过的相同课程。</t>
+  </si>
+  <si>
+    <t>4、报考本专业（独立本科段）的考生可申请免考公共外语，但必须选择加考3至4门其他选考课程，其学分不少于14学分。免考公共外语的考生，不得申请学位。</t>
+  </si>
+  <si>
+    <t>5、凡国家承认学历的各类高校（含自考）专科及以上毕业生可直接报考本专业（独立本科段）。其中，非政治学类专业专科毕业生必须报考“行政管理学”和“政治学概论”两门选考课程。</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、毕业论文是独立本科段学习的必修内容，本科应考者在全部课程考试合格后必须撰写毕业论文。论文题目范围由主考院校选定公布，应考者任选其中一题写作，篇幅一般在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字左右。</t>
+    </r>
+  </si>
+  <si>
+    <t>论文必须由应考者本人独立完成，且观点明确、结构合理、论述有据、文字通顺。论文由主考院校组织审阅和答辩，论文成绩采用五级计分制评定，即优秀、良好、中等、及格和不及格。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,11 +1325,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1135,108 +1355,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1257,6 +1380,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1264,10 +1432,40 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1278,8 +1476,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1288,13 +1508,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,7 +1538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,19 +1556,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,7 +1598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,79 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,7 +1628,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,24 +1664,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1482,342 +1708,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1826,7 +1722,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1834,11 +1730,78 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1874,6 +1837,336 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1910,11 +2203,76 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1941,230 +2299,258 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2175,177 +2561,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2677,19 +3063,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="44"/>
+      <c r="A2" s="80"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="80"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="44"/>
+      <c r="A4" s="80"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="80"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2712,200 +3098,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="95" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="112"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="101"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="65"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="101"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="65"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="101"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="65"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="101"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="65"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="101"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="65"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="101"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="69"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="65"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="101"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="69"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="65"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2929,10 +3315,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="107" t="s">
         <v>26</v>
       </c>
       <c r="C1" t="s">
@@ -2940,22 +3326,22 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
       <c r="C2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
       <c r="C3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
@@ -2963,50 +3349,50 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
       <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
       <c r="C7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
       <c r="C8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
       <c r="C9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
       <c r="C10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
@@ -3014,46 +3400,46 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
       <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
       <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="44" t="s">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="80" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="44" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="80" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="73" t="s">
+      <c r="A16" s="107"/>
+      <c r="B16" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="80" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="80" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3081,304 +3467,304 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="72"/>
-    <col min="3" max="3" width="30.5" style="72" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="72"/>
+    <col min="1" max="2" width="9" style="108"/>
+    <col min="3" max="3" width="30.5" style="108" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="72" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="41" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="A27" s="41"/>
+      <c r="D27" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="A28" s="41"/>
+      <c r="D28" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="5"/>
-      <c r="D29" s="5" t="s">
+      <c r="A29" s="41"/>
+      <c r="D29" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="D30" s="5" t="s">
+      <c r="A30" s="41"/>
+      <c r="D30" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5"/>
-      <c r="C31" s="72" t="s">
+      <c r="A31" s="41"/>
+      <c r="C31" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="108" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="72" t="s">
+      <c r="A32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="108" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="D33" s="72" t="s">
+      <c r="A33" s="41"/>
+      <c r="D33" s="108" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="5"/>
-      <c r="D34" s="72" t="s">
+      <c r="A34" s="41"/>
+      <c r="D34" s="108" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="C35" s="72" t="s">
+      <c r="A35" s="41"/>
+      <c r="C35" s="108" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="72" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="108" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="C37" s="72" t="s">
+      <c r="A37" s="41"/>
+      <c r="C37" s="108" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3419,80 +3805,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="38" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="38" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="38" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="38" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="38" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="38" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="38" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="38" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="38" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3519,619 +3905,619 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="28.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="38"/>
+    <col min="2" max="2" width="28.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="38" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="38" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="38" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="38" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="38" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="38" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="2" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="2" t="s">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="38" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="38" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71" t="s">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="2" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71" t="s">
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="2" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="2" t="s">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="2" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="38" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="2" t="s">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="2" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="38" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="2" t="s">
+      <c r="A18" s="107"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="38" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71" t="s">
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="2" t="s">
+      <c r="A20" s="107"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="38" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="38" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="2" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="38" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="2" t="s">
+      <c r="A23" s="107"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="38" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71" t="s">
+      <c r="A24" s="107"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="38" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="2" t="s">
+      <c r="A25" s="107"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="38" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="2" t="s">
+      <c r="A26" s="107"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="38" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="2" t="s">
+      <c r="A27" s="107"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71" t="s">
+      <c r="A28" s="107"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="38" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="2" t="s">
+      <c r="A29" s="107"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="2" t="s">
+      <c r="A30" s="107"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="38" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="38" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="2" t="s">
+      <c r="A32" s="107"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="38" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="2" t="s">
+      <c r="A33" s="107"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="2" t="s">
+      <c r="A34" s="107"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="38" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71" t="s">
+      <c r="A35" s="107"/>
+      <c r="B35" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="38" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71" t="s">
+      <c r="A36" s="107"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="38" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="2" t="s">
+      <c r="A37" s="107"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="38" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71" t="s">
+      <c r="A38" s="107"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="38" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="2" t="s">
+      <c r="A39" s="107"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="38" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="2" t="s">
+      <c r="A40" s="107"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="38" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71" t="s">
+      <c r="A41" s="107"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="38" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="2" t="s">
+      <c r="A42" s="107"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="38" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71" t="s">
+      <c r="A43" s="107"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="2" t="s">
+      <c r="A44" s="107"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="38" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="2" t="s">
+      <c r="A45" s="107"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="38" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71" t="s">
+      <c r="A46" s="107"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="38" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="2" t="s">
+      <c r="A47" s="107"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="38" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="71"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="2" t="s">
+      <c r="A48" s="107"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="38" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="71"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71" t="s">
+      <c r="A49" s="107"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="38" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="2" t="s">
+      <c r="A50" s="107"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="38" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71" t="s">
+      <c r="A51" s="107"/>
+      <c r="B51" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="38" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71" t="s">
+      <c r="A52" s="107"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="2" t="s">
+      <c r="A53" s="107"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="38" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="71"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="2" t="s">
+      <c r="A54" s="107"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="38" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="2" t="s">
+      <c r="A55" s="107"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="38" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="71"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="2" t="s">
+      <c r="A56" s="107"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="38" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="71"/>
-      <c r="B57" s="71" t="s">
+      <c r="A57" s="107"/>
+      <c r="B57" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="38" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="71"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="2" t="s">
+      <c r="A58" s="107"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="38" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="71"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="2" t="s">
+      <c r="A59" s="107"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="38" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="71"/>
-      <c r="B60" s="71" t="s">
+      <c r="A60" s="107"/>
+      <c r="B60" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="38" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="71"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="2" t="s">
+      <c r="A61" s="107"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="38" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="71"/>
-      <c r="B62" s="71" t="s">
+      <c r="A62" s="107"/>
+      <c r="B62" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="38" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="71"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71" t="s">
+      <c r="A63" s="107"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="38" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="2" t="s">
+      <c r="A64" s="107"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="38" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="2" t="s">
+      <c r="A65" s="107"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="38" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="2" t="s">
+      <c r="A66" s="107"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="38" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="71"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="2" t="s">
+      <c r="A67" s="107"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="38" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="71"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="2" t="s">
+      <c r="A68" s="107"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="38" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4181,9 +4567,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9" style="39" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="40" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="5.25" customWidth="1"/>
     <col min="11" max="11" width="23.5" customWidth="1"/>
@@ -4191,472 +4577,472 @@
   </cols>
   <sheetData>
     <row r="2" ht="15" spans="2:12">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55">
+      <c r="J2" s="90"/>
+      <c r="K2" s="91">
         <v>43568</v>
       </c>
-      <c r="L2" s="56">
+      <c r="L2" s="92">
         <v>43569</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="44">
         <v>3709</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="47">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="J3" s="57" t="s">
+      <c r="F3" s="38"/>
+      <c r="J3" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="12">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="49">
         <v>3708</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="52">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61" t="s">
+      <c r="J4" s="96"/>
+      <c r="K4" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="12">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="53">
         <v>840</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="55">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="23">
+      <c r="A7" s="59">
         <v>4</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="53">
         <v>600</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="55">
         <v>12</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55">
+      <c r="F7" s="38"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="91">
         <v>43575</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="92">
         <v>43576</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="24"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="15" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="2"/>
-      <c r="J8" s="43" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="38"/>
+      <c r="J8" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="L8" s="67" t="s">
+      <c r="L8" s="103" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="12">
+      <c r="A9" s="48">
         <v>5</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="49">
         <v>87</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="52">
         <v>6</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="J9" s="63" t="s">
+      <c r="F9" s="38"/>
+      <c r="J9" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62" t="s">
+      <c r="K9" s="97"/>
+      <c r="L9" s="98" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12">
+      <c r="A10" s="48">
         <v>6</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="49">
         <v>8681</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="52">
         <v>3</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49">
         <v>8682</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="52">
         <v>3</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55">
+      <c r="F11" s="38"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91">
         <v>43582</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="92">
         <v>43583</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="12">
+      <c r="A12" s="48">
         <v>7</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="49">
         <v>603</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="52">
         <v>4</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="J12" s="43" t="s">
+      <c r="F12" s="38"/>
+      <c r="J12" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="K12" s="68"/>
-      <c r="L12" s="67" t="s">
+      <c r="K12" s="104"/>
+      <c r="L12" s="103" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:12">
-      <c r="A13" s="25">
+      <c r="A13" s="61">
         <v>8</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="62">
         <v>604</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="65">
         <v>6</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="J13" s="63" t="s">
+      <c r="F13" s="38"/>
+      <c r="J13" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7">
+      <c r="A14" s="43">
         <v>9</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="66">
         <v>830</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="47">
         <v>4</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="42" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12">
+      <c r="A15" s="48">
         <v>10</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="68">
         <v>831</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="52">
         <v>4</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="12">
+      <c r="A16" s="48">
         <v>11</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="68">
         <v>832</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="52">
         <v>4</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55">
+      <c r="F16" s="38"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91">
         <v>43757</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="92">
         <v>43758</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:12">
-      <c r="A17" s="12">
+      <c r="A17" s="48">
         <v>12</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="68">
         <v>9075</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="52">
         <v>4</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="J17" s="57" t="s">
+      <c r="F17" s="38"/>
+      <c r="J17" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="95" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="35">
+      <c r="A18" s="71">
         <v>13</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="66">
         <v>795</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="74">
         <v>10</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61" t="s">
+      <c r="J18" s="96"/>
+      <c r="K18" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="98" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="39"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="J19" s="63" t="s">
+      <c r="E19" s="78"/>
+      <c r="J19" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="L19" s="62" t="s">
+      <c r="L19" s="98" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="39">
+      <c r="A20" s="75">
         <v>14</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="68">
         <v>593</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="78">
         <v>8</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="80" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:12">
-      <c r="A21" s="45">
+      <c r="A21" s="81">
         <v>15</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="62">
         <v>594</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="84">
         <v>8</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="55">
+      <c r="J21" s="90"/>
+      <c r="K21" s="91">
         <v>43764</v>
       </c>
-      <c r="L21" s="56">
+      <c r="L21" s="92">
         <v>43765</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:12">
-      <c r="A22" s="49">
+      <c r="A22" s="85">
         <v>16</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="86">
         <v>10233</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="2" t="s">
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="68"/>
-      <c r="L22" s="67" t="s">
+      <c r="K22" s="104"/>
+      <c r="L22" s="103" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4664,11 +5050,11 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="101"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24"/>
@@ -4679,11 +5065,11 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="55">
+      <c r="J25" s="90"/>
+      <c r="K25" s="91">
         <v>43771</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="92">
         <v>43772</v>
       </c>
     </row>
@@ -4691,25 +5077,25 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="J26" s="43" t="s">
+      <c r="J26" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="68"/>
-      <c r="L26" s="69"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="105"/>
     </row>
     <row r="27" spans="10:12">
-      <c r="J27" s="57" t="s">
+      <c r="J27" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="K27" s="70"/>
-      <c r="L27" s="59" t="s">
+      <c r="K27" s="106"/>
+      <c r="L27" s="95" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28" spans="10:12">
-      <c r="J28" s="60"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="62" t="s">
+      <c r="J28" s="96"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="98" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4740,8 +5126,8 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5035,8 +5421,6 @@
       <c r="C16" t="s">
         <v>264</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
       <c r="F16" t="s">
         <v>240</v>
       </c>
@@ -5050,7 +5434,7 @@
       <c r="B21" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="37" t="s">
         <v>266</v>
       </c>
       <c r="F21" t="s">
@@ -5077,7 +5461,7 @@
       <c r="D24" t="s">
         <v>272</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="37" t="s">
         <v>273</v>
       </c>
       <c r="J24" t="s">
@@ -5115,4 +5499,629 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="39.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3709</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3708</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="J7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="J8" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="10"/>
+      <c r="J9" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <v>6</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8">
+        <v>315</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <v>6</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="J11" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8">
+        <v>316</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <v>6</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="J12" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1848</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="J13" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8">
+        <v>318</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8">
+        <v>319</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8">
+        <v>320</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8">
+        <v>261</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14">
+        <v>12</v>
+      </c>
+      <c r="B18" s="15">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
+        <v>4</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="17">
+        <v>13</v>
+      </c>
+      <c r="B19" s="12">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
+        <v>6</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="K19" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="17">
+        <v>14</v>
+      </c>
+      <c r="B20" s="12">
+        <v>67</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
+        <v>6</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="K20" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="17">
+        <v>15</v>
+      </c>
+      <c r="B21" s="12">
+        <v>107</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
+        <v>6</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="K21" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="17">
+        <v>16</v>
+      </c>
+      <c r="B22" s="12">
+        <v>144</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
+        <v>5</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="K22" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="19">
+        <v>17</v>
+      </c>
+      <c r="B23" s="8">
+        <v>277</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8">
+        <v>6</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="K23" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="19">
+        <v>18</v>
+      </c>
+      <c r="B24" s="8">
+        <v>312</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <v>6</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="K24" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="17">
+        <v>19</v>
+      </c>
+      <c r="B25" s="12">
+        <v>321</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
+        <v>5</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="K25" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="17">
+        <v>20</v>
+      </c>
+      <c r="B26" s="12">
+        <v>322</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
+        <v>5</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="K26" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="17">
+        <v>21</v>
+      </c>
+      <c r="B27" s="12">
+        <v>323</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
+        <v>4</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="K27" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="20">
+        <v>22</v>
+      </c>
+      <c r="B28" s="21">
+        <v>341</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21">
+        <v>6</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="K28" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12">
+        <v>10304</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="11:11">
+      <c r="K30" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F18:F28"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12165" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12615" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="算法" sheetId="13" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="英语" sheetId="3" r:id="rId7"/>
     <sheet name="计算机科学与技术080901" sheetId="14" r:id="rId8"/>
     <sheet name="行政管理120402" sheetId="15" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="338">
   <si>
     <t>技术栈</t>
   </si>
@@ -1104,6 +1105,38 @@
     <t>(04741)计算机网络原理</t>
   </si>
   <si>
+    <r>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>任选一门</t>
   </si>
   <si>
@@ -1199,63 +1232,63 @@
     <t>现代管理学</t>
   </si>
   <si>
+    <t>(00034)社会学概论</t>
+  </si>
+  <si>
+    <t>企业管理概论</t>
+  </si>
+  <si>
+    <t>(00315)当代中国政治制度</t>
+  </si>
+  <si>
+    <t>行政管理学</t>
+  </si>
+  <si>
+    <t>(00316)西方政治制度</t>
+  </si>
+  <si>
+    <t>政治学概论</t>
+  </si>
+  <si>
+    <t>(01848)公务员制度</t>
+  </si>
+  <si>
+    <t>中国文化概论</t>
+  </si>
+  <si>
     <t>(00318)公共政策</t>
   </si>
   <si>
-    <t>企业管理概论</t>
-  </si>
-  <si>
-    <t>(00315)当代中国政治制度</t>
-  </si>
-  <si>
-    <t>行政管理学</t>
-  </si>
-  <si>
-    <t>(01848)公务员制度</t>
-  </si>
-  <si>
-    <t>政治学概论</t>
+    <t>中国行政史</t>
+  </si>
+  <si>
+    <t>(00319)行政组织理论</t>
+  </si>
+  <si>
+    <t>西方行政学说史</t>
+  </si>
+  <si>
+    <t>(00320)领导科学</t>
+  </si>
+  <si>
+    <t>公文写作与处理</t>
+  </si>
+  <si>
+    <t>(00261)行政法学</t>
+  </si>
+  <si>
+    <t>行政管理学毕业论文</t>
   </si>
   <si>
     <t>(00277)行政管理学</t>
   </si>
   <si>
-    <t>中国文化概论</t>
-  </si>
-  <si>
-    <t>(00034)社会学概论</t>
-  </si>
-  <si>
-    <t>中国行政史</t>
-  </si>
-  <si>
-    <t>(00320)领导科学</t>
-  </si>
-  <si>
-    <t>西方行政学说史</t>
-  </si>
-  <si>
-    <t>(00319)行政组织理论</t>
-  </si>
-  <si>
-    <t>公文写作与处理</t>
-  </si>
-  <si>
-    <t>(00261)行政法学</t>
-  </si>
-  <si>
-    <t>行政管理学毕业论文</t>
-  </si>
-  <si>
-    <t>(00316)西方政治制度</t>
+    <t>(00312)政治学概论</t>
   </si>
   <si>
     <t>说明：</t>
   </si>
   <si>
-    <t>(00312)政治学概论</t>
-  </si>
-  <si>
     <t>1、已通过原高教自考“行政法学”课程的考生不能申请免考“行政法与行政诉讼法（一）”课程，但可不报考“行政法与行政诉讼法（一）”课程，用报考选考课程的方式补足总学分和总门数。</t>
   </si>
   <si>
@@ -1272,6 +1305,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>6</t>
     </r>
     <r>
@@ -1311,10 +1350,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1355,23 +1394,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1386,68 +1469,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1470,18 +1494,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1493,7 +1509,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1514,7 +1553,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,25 +1607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,19 +1619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,37 +1637,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,19 +1661,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,43 +1697,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2202,6 +2241,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2228,15 +2330,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2245,209 +2338,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2461,6 +2500,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2473,6 +2515,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2485,6 +2530,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2494,6 +2545,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2515,33 +2569,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2552,9 +2587,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3063,22 +3095,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="80"/>
+      <c r="A2" s="77"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="80"/>
+      <c r="A3" s="77"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="80"/>
+      <c r="A4" s="77"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="80"/>
+      <c r="A5" s="77"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="80"/>
+      <c r="A6" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3098,200 +3146,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="92" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="112"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="101"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="98"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="101"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="98"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="109"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="101"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="98"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="109"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="101"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="98"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="101"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="98"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="101"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="98"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="105"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="102"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="101"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="105"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="102"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="101"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3315,10 +3363,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="104" t="s">
         <v>26</v>
       </c>
       <c r="C1" t="s">
@@ -3326,22 +3374,22 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
       <c r="C2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
       <c r="C3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
@@ -3349,50 +3397,50 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
       <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
       <c r="C7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
       <c r="C8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
       <c r="C9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
       <c r="C10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107" t="s">
+      <c r="A11" s="104"/>
+      <c r="B11" s="104" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
@@ -3400,46 +3448,46 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
       <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
       <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="80" t="s">
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="77" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="80" t="s">
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="77" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="107"/>
-      <c r="B16" s="109" t="s">
+      <c r="A16" s="104"/>
+      <c r="B16" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="77" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="107"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="80" t="s">
+      <c r="A17" s="104"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="77" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3467,304 +3515,304 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="108"/>
-    <col min="3" max="3" width="30.5" style="108" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="108"/>
+    <col min="1" max="2" width="9" style="105"/>
+    <col min="3" max="3" width="30.5" style="105" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="38" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="38" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="41"/>
-      <c r="B26" s="108" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="38" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="41"/>
-      <c r="D27" s="41" t="s">
+      <c r="A27" s="38"/>
+      <c r="D27" s="38" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="41"/>
-      <c r="D28" s="41" t="s">
+      <c r="A28" s="38"/>
+      <c r="D28" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="41"/>
-      <c r="D29" s="41" t="s">
+      <c r="A29" s="38"/>
+      <c r="D29" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="41"/>
-      <c r="D30" s="41" t="s">
+      <c r="A30" s="38"/>
+      <c r="D30" s="38" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="41"/>
-      <c r="C31" s="108" t="s">
+      <c r="A31" s="38"/>
+      <c r="C31" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="108" t="s">
+      <c r="E31" s="105" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="108" t="s">
+      <c r="A32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="105" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="41"/>
-      <c r="D33" s="108" t="s">
+      <c r="A33" s="38"/>
+      <c r="D33" s="105" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="41"/>
-      <c r="D34" s="108" t="s">
+      <c r="A34" s="38"/>
+      <c r="D34" s="105" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="41"/>
-      <c r="C35" s="108" t="s">
+      <c r="A35" s="38"/>
+      <c r="C35" s="105" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="108" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="105" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="41"/>
-      <c r="C37" s="108" t="s">
+      <c r="A37" s="38"/>
+      <c r="C37" s="105" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3805,80 +3853,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="38" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="38" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="38" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="104"/>
+      <c r="B7" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="38" t="s">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="38" t="s">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="38" t="s">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3905,619 +3953,619 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="38"/>
-    <col min="2" max="2" width="28.75" style="38" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="38" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="38" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="38"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="38" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="38" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="38" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="38" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="38" t="s">
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="38" t="s">
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="38" t="s">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107" t="s">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="38" t="s">
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107" t="s">
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="38" t="s">
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="38" t="s">
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="38" t="s">
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="38" t="s">
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="38" t="s">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="107"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="38" t="s">
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107" t="s">
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="107"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="38" t="s">
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107" t="s">
+      <c r="A21" s="104"/>
+      <c r="B21" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="38" t="s">
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="38" t="s">
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107" t="s">
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="38" t="s">
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="38" t="s">
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="38" t="s">
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="107"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107" t="s">
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="107"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="38" t="s">
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="107"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="38" t="s">
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="107"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107" t="s">
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="107"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="38" t="s">
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="107"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="38" t="s">
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="107"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="38" t="s">
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="107"/>
-      <c r="B35" s="107" t="s">
+      <c r="A35" s="104"/>
+      <c r="B35" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="107"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107" t="s">
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="107"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="38" t="s">
+      <c r="A37" s="104"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="107"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107" t="s">
+      <c r="A38" s="104"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="107"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="38" t="s">
+      <c r="A39" s="104"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="107"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="38" t="s">
+      <c r="A40" s="104"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="107"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107" t="s">
+      <c r="A41" s="104"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="107"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="38" t="s">
+      <c r="A42" s="104"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="107"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107" t="s">
+      <c r="A43" s="104"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="107"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="38" t="s">
+      <c r="A44" s="104"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="107"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="38" t="s">
+      <c r="A45" s="104"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="107"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107" t="s">
+      <c r="A46" s="104"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="107"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="38" t="s">
+      <c r="A47" s="104"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="107"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="38" t="s">
+      <c r="A48" s="104"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="107"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107" t="s">
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="107"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="38" t="s">
+      <c r="A50" s="104"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="107"/>
-      <c r="B51" s="107" t="s">
+      <c r="A51" s="104"/>
+      <c r="B51" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="107"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107" t="s">
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="107"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="38" t="s">
+      <c r="A53" s="104"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="107"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="38" t="s">
+      <c r="A54" s="104"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="107"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="38" t="s">
+      <c r="A55" s="104"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="107"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="38" t="s">
+      <c r="A56" s="104"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="107"/>
-      <c r="B57" s="107" t="s">
+      <c r="A57" s="104"/>
+      <c r="B57" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="107"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="38" t="s">
+      <c r="A58" s="104"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="107"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="38" t="s">
+      <c r="A59" s="104"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="107"/>
-      <c r="B60" s="107" t="s">
+      <c r="A60" s="104"/>
+      <c r="B60" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="107"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="38" t="s">
+      <c r="A61" s="104"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="107"/>
-      <c r="B62" s="107" t="s">
+      <c r="A62" s="104"/>
+      <c r="B62" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="107"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="107" t="s">
+      <c r="A63" s="104"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="107"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="38" t="s">
+      <c r="A64" s="104"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="107"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="38" t="s">
+      <c r="A65" s="104"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="107"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="38" t="s">
+      <c r="A66" s="104"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="107"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="38" t="s">
+      <c r="A67" s="104"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="107"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="38" t="s">
+      <c r="A68" s="104"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4567,9 +4615,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="9" style="39" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="36" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="37" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="5.25" customWidth="1"/>
     <col min="11" max="11" width="23.5" customWidth="1"/>
@@ -4577,472 +4625,472 @@
   </cols>
   <sheetData>
     <row r="2" ht="15" spans="2:12">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="91">
+      <c r="J2" s="87"/>
+      <c r="K2" s="88">
         <v>43568</v>
       </c>
-      <c r="L2" s="92">
+      <c r="L2" s="89">
         <v>43569</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="43">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="41">
         <v>3709</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="44">
         <v>4</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="J3" s="93" t="s">
+      <c r="F3" s="1"/>
+      <c r="J3" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="95" t="s">
+      <c r="L3" s="92" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="48">
+      <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="46">
         <v>3708</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="49">
         <v>2</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97" t="s">
+      <c r="J4" s="93"/>
+      <c r="K4" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="95" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="48">
+      <c r="A5" s="45">
         <v>3</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="50">
         <v>840</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="52">
         <v>6</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="48"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="51" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="38"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="59">
+      <c r="A7" s="56">
         <v>4</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="50">
         <v>600</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="52">
         <v>12</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="91">
+      <c r="F7" s="1"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="88">
         <v>43575</v>
       </c>
-      <c r="L7" s="92">
+      <c r="L7" s="89">
         <v>43576</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="60"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="51" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="38"/>
-      <c r="J8" s="79" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="1"/>
+      <c r="J8" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="K8" s="102" t="s">
+      <c r="K8" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="L8" s="103" t="s">
+      <c r="L8" s="100" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="48">
+      <c r="A9" s="45">
         <v>5</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="46">
         <v>87</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="49">
         <v>6</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="J9" s="99" t="s">
+      <c r="F9" s="1"/>
+      <c r="J9" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="98" t="s">
+      <c r="K9" s="94"/>
+      <c r="L9" s="95" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="48">
+      <c r="A10" s="45">
         <v>6</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="46">
         <v>8681</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="49">
         <v>3</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46">
         <v>8682</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="49">
         <v>3</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91">
+      <c r="F11" s="1"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88">
         <v>43582</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="89">
         <v>43583</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="48">
+      <c r="A12" s="45">
         <v>7</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="46">
         <v>603</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="49">
         <v>4</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="J12" s="79" t="s">
+      <c r="F12" s="1"/>
+      <c r="J12" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="K12" s="104"/>
-      <c r="L12" s="103" t="s">
+      <c r="K12" s="101"/>
+      <c r="L12" s="100" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:12">
-      <c r="A13" s="61">
+      <c r="A13" s="58">
         <v>8</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="59">
         <v>604</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="62">
         <v>6</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="J13" s="99" t="s">
+      <c r="F13" s="1"/>
+      <c r="J13" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="98"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="43">
+      <c r="A14" s="40">
         <v>9</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="63">
         <v>830</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="44">
         <v>4</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="39" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="48">
+      <c r="A15" s="45">
         <v>10</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="65">
         <v>831</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="49">
         <v>4</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="48">
+      <c r="A16" s="45">
         <v>11</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="65">
         <v>832</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="49">
         <v>4</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91">
+      <c r="F16" s="1"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88">
         <v>43757</v>
       </c>
-      <c r="L16" s="92">
+      <c r="L16" s="89">
         <v>43758</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:12">
-      <c r="A17" s="48">
+      <c r="A17" s="45">
         <v>12</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="65">
         <v>9075</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="49">
         <v>4</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="J17" s="93" t="s">
+      <c r="F17" s="1"/>
+      <c r="J17" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="K17" s="94" t="s">
+      <c r="K17" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="95" t="s">
+      <c r="L17" s="92" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="71">
+      <c r="A18" s="68">
         <v>13</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="63">
         <v>795</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="74">
+      <c r="E18" s="71">
         <v>10</v>
       </c>
-      <c r="J18" s="96"/>
-      <c r="K18" s="97" t="s">
+      <c r="J18" s="93"/>
+      <c r="K18" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="L18" s="98" t="s">
+      <c r="L18" s="95" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="75"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="J19" s="99" t="s">
+      <c r="E19" s="75"/>
+      <c r="J19" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="97" t="s">
+      <c r="K19" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="L19" s="98" t="s">
+      <c r="L19" s="95" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="75">
+      <c r="A20" s="72">
         <v>14</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="65">
         <v>593</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="75">
         <v>8</v>
       </c>
-      <c r="F20" s="80" t="s">
+      <c r="F20" s="77" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:12">
-      <c r="A21" s="81">
+      <c r="A21" s="78">
         <v>15</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="59">
         <v>594</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="81">
         <v>8</v>
       </c>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91">
+      <c r="J21" s="87"/>
+      <c r="K21" s="88">
         <v>43764</v>
       </c>
-      <c r="L21" s="92">
+      <c r="L21" s="89">
         <v>43765</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:12">
-      <c r="A22" s="85">
+      <c r="A22" s="82">
         <v>16</v>
       </c>
-      <c r="B22" s="86">
+      <c r="B22" s="83">
         <v>10233</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="38" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="104"/>
-      <c r="L22" s="103" t="s">
+      <c r="K22" s="101"/>
+      <c r="L22" s="100" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5050,11 +5098,11 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="J23" s="99" t="s">
+      <c r="J23" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="101"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="98"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24"/>
@@ -5065,11 +5113,11 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91">
+      <c r="J25" s="87"/>
+      <c r="K25" s="88">
         <v>43771</v>
       </c>
-      <c r="L25" s="92">
+      <c r="L25" s="89">
         <v>43772</v>
       </c>
     </row>
@@ -5077,25 +5125,25 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="J26" s="79" t="s">
+      <c r="J26" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="104"/>
-      <c r="L26" s="105"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="102"/>
     </row>
     <row r="27" spans="10:12">
-      <c r="J27" s="93" t="s">
+      <c r="J27" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="K27" s="106"/>
-      <c r="L27" s="95" t="s">
+      <c r="K27" s="103"/>
+      <c r="L27" s="92" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28" spans="10:12">
-      <c r="J28" s="96"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="98" t="s">
+      <c r="J28" s="93"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="95" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5434,7 +5482,7 @@
       <c r="B21" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>266</v>
       </c>
       <c r="F21" t="s">
@@ -5461,7 +5509,7 @@
       <c r="D24" t="s">
         <v>272</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="35" t="s">
         <v>273</v>
       </c>
       <c r="J24" t="s">
@@ -5504,622 +5552,699 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="17.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
-    <col min="7" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="39.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="40.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.75" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="5.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="39.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="40.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="34.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.75" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>3709</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="7">
+      <c r="G2" s="7"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
         <v>3708</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
         <v>2</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="G3" s="12"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="11">
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="D4" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="28"/>
+      <c r="G4" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12">
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15">
         <v>16</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="D5" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
         <v>14</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="10"/>
-      <c r="J6" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="29"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="12"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10"/>
-      <c r="J7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="10"/>
-      <c r="J8" s="34" t="s">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="12"/>
+      <c r="K7" t="s">
         <v>283</v>
       </c>
-      <c r="K8" s="34" t="s">
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="12"/>
+      <c r="K8" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="32" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="10"/>
-      <c r="J9" s="34" t="s">
+      <c r="M8" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="34" t="s">
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="12"/>
+      <c r="K9" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="32" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7">
+      <c r="N9" s="32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
         <v>4</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
         <v>34</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8">
+      <c r="D10" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
         <v>6</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10">
         <v>315</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
+      <c r="D11" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
         <v>6</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="J11" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="7">
+      <c r="G11" s="12"/>
+      <c r="K11" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="8">
         <v>6</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10">
         <v>316</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8">
+      <c r="D12" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
         <v>6</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="J12" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="K12" s="34" t="s">
+      <c r="G12" s="12"/>
+      <c r="K12" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="33" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7">
+      <c r="N12" s="33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8">
         <v>7</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10">
         <v>1848</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8">
+      <c r="D13" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
         <v>4</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="J13" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="K13" s="34" t="s">
+      <c r="G13" s="12"/>
+      <c r="K13" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="32" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7">
+      <c r="M13" s="33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
         <v>8</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10">
         <v>318</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8">
+      <c r="D14" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
         <v>4</v>
       </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
         <v>9</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10">
         <v>319</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8">
+      <c r="D15" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
         <v>4</v>
       </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="7">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="8">
         <v>10</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10">
         <v>320</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8">
+      <c r="D16" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
         <v>4</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7">
+      <c r="G16" s="12"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
         <v>11</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10">
         <v>261</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8">
+      <c r="D17" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
         <v>5</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="14">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="18">
         <v>12</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="19">
+        <v>12</v>
+      </c>
+      <c r="C18" s="20">
         <v>24</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15">
+      <c r="D18" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20">
         <v>4</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="17">
+      <c r="G18" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="22">
         <v>13</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="14">
+        <v>13</v>
+      </c>
+      <c r="C19" s="15">
         <v>40</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12">
+      <c r="D19" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15">
         <v>6</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="K19" s="1" t="s">
+      <c r="G19" s="23"/>
+      <c r="L19" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="17">
+    <row r="20" spans="1:12">
+      <c r="A20" s="22">
         <v>14</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15">
         <v>67</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12">
+      <c r="D20" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15">
         <v>6</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="K20" s="1" t="s">
+      <c r="G20" s="23"/>
+      <c r="L20" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="17">
+    <row r="21" spans="1:12">
+      <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="14">
+        <v>15</v>
+      </c>
+      <c r="C21" s="15">
         <v>107</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12">
+      <c r="D21" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15">
         <v>6</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="K21" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="17">
+      <c r="G21" s="23"/>
+      <c r="L21" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="22">
         <v>16</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="14">
+        <v>16</v>
+      </c>
+      <c r="C22" s="15">
         <v>144</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15">
+        <v>5</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="L22" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="24">
+        <v>17</v>
+      </c>
+      <c r="B23" s="14">
+        <v>17</v>
+      </c>
+      <c r="C23" s="10">
+        <v>277</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
+        <v>6</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="L23" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="14">
+        <v>18</v>
+      </c>
+      <c r="C24" s="10">
         <v>312</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
+      <c r="D24" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
+        <v>6</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="L24" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="22">
+        <v>19</v>
+      </c>
+      <c r="B25" s="14">
+        <v>19</v>
+      </c>
+      <c r="C25" s="15">
+        <v>321</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15">
         <v>5</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="K22" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="19">
-        <v>17</v>
-      </c>
-      <c r="B23" s="8">
-        <v>277</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8">
+      <c r="G25" s="23"/>
+      <c r="L25" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="22">
+        <v>20</v>
+      </c>
+      <c r="B26" s="14">
+        <v>20</v>
+      </c>
+      <c r="C26" s="15">
+        <v>322</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15">
+        <v>5</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="L26" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="22">
+        <v>21</v>
+      </c>
+      <c r="B27" s="14">
+        <v>21</v>
+      </c>
+      <c r="C27" s="15">
+        <v>323</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15">
+        <v>4</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="L27" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="25">
+        <v>22</v>
+      </c>
+      <c r="B28" s="14">
+        <v>22</v>
+      </c>
+      <c r="C28" s="26">
+        <v>341</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26">
         <v>6</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="K23" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="19">
-        <v>18</v>
-      </c>
-      <c r="B24" s="8">
-        <v>312</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
-        <v>6</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="K24" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="17">
-        <v>19</v>
-      </c>
-      <c r="B25" s="12">
-        <v>321</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12">
-        <v>5</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="K25" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="17">
-        <v>20</v>
-      </c>
-      <c r="B26" s="12">
-        <v>322</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12">
-        <v>5</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="K26" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="17">
-        <v>21</v>
-      </c>
-      <c r="B27" s="12">
-        <v>323</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12">
-        <v>4</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="K27" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="20">
-        <v>22</v>
-      </c>
-      <c r="B28" s="21">
-        <v>341</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21">
-        <v>6</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="K28" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12">
+      <c r="G28" s="27"/>
+      <c r="L28" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15">
         <v>10304</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12" t="s">
+      <c r="D29" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" spans="11:11">
-      <c r="K30" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="24" t="s">
+      <c r="L29" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="K31" s="1" t="s">
+    </row>
+    <row r="30" spans="12:12">
+      <c r="L30" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="24" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="28" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="24" t="s">
+      <c r="B31" s="28"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="28" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="24" t="s">
+      <c r="B32" s="28"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="28" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="24" t="s">
+      <c r="B33" s="28"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="28" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="24" t="s">
+      <c r="B34" s="28"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="28" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="25" t="s">
+      <c r="B35" s="28"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="28" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="25" t="s">
+      <c r="B36" s="28"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="28" t="s">
         <v>336</v>
+      </c>
+      <c r="B37" s="28"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="28" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B5:B9"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="F18:F28"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G18:G28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="338">
   <si>
     <t>技术栈</t>
   </si>
@@ -1106,6 +1106,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>英语</t>
     </r>
     <r>
@@ -1350,10 +1356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1395,13 +1401,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1409,77 +1408,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,10 +1431,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1515,8 +1467,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1525,6 +1499,38 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1553,7 +1559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,13 +1577,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,151 +1733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2241,26 +2247,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2276,6 +2267,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2304,26 +2319,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2344,150 +2350,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2500,9 +2507,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2515,9 +2519,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2530,9 +2531,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2540,9 +2538,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3095,19 +3090,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="77"/>
+      <c r="A2" s="74"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="74"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="77"/>
+      <c r="A4" s="74"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="77"/>
+      <c r="A5" s="74"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3118,14 +3113,124 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29">
+      <c r="B2" s="1">
+        <v>43711</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43712</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43713</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43714</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43715</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43716</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43717</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43718</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43719</v>
+      </c>
+      <c r="K2" s="1">
+        <v>43720</v>
+      </c>
+      <c r="L2" s="1">
+        <v>43721</v>
+      </c>
+      <c r="M2" s="1">
+        <v>43722</v>
+      </c>
+      <c r="N2" s="1">
+        <v>43723</v>
+      </c>
+      <c r="O2" s="1">
+        <v>43724</v>
+      </c>
+      <c r="P2" s="1">
+        <v>43725</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>43726</v>
+      </c>
+      <c r="R2" s="1">
+        <v>43727</v>
+      </c>
+      <c r="S2" s="1">
+        <v>43728</v>
+      </c>
+      <c r="T2" s="1">
+        <v>43729</v>
+      </c>
+      <c r="U2" s="1">
+        <v>43730</v>
+      </c>
+      <c r="V2" s="1">
+        <v>43731</v>
+      </c>
+      <c r="W2" s="1">
+        <v>43732</v>
+      </c>
+      <c r="X2" s="1">
+        <v>43733</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>43734</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>43735</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>43736</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>43737</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>43738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3146,200 +3251,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="89" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="98"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="95"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="98"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="95"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="98"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="95"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="109"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="98"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="95"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="98"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="98"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="99"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="98"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="102"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="99"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="98"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3363,10 +3468,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="101" t="s">
         <v>26</v>
       </c>
       <c r="C1" t="s">
@@ -3374,22 +3479,22 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
       <c r="C2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
       <c r="C3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="101" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
@@ -3397,50 +3502,50 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
       <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
       <c r="C7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
       <c r="C8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
       <c r="C9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
       <c r="C10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="101" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
@@ -3448,46 +3553,46 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
       <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
       <c r="C13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="77" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="74" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="77" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="74" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="104"/>
-      <c r="B16" s="106" t="s">
+      <c r="A16" s="101"/>
+      <c r="B16" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="74" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="104"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="77" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="74" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3515,304 +3620,304 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="105"/>
-    <col min="3" max="3" width="30.5" style="105" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="105"/>
+    <col min="1" max="2" width="9" style="102"/>
+    <col min="3" max="3" width="30.5" style="102" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="35" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="38"/>
-      <c r="B26" s="105" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="105" t="s">
+      <c r="C26" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="38"/>
-      <c r="D27" s="38" t="s">
+      <c r="A27" s="35"/>
+      <c r="D27" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="38"/>
-      <c r="D28" s="38" t="s">
+      <c r="A28" s="35"/>
+      <c r="D28" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="38"/>
-      <c r="D29" s="38" t="s">
+      <c r="A29" s="35"/>
+      <c r="D29" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="38"/>
-      <c r="D30" s="38" t="s">
+      <c r="A30" s="35"/>
+      <c r="D30" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="38"/>
-      <c r="C31" s="105" t="s">
+      <c r="A31" s="35"/>
+      <c r="C31" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="105" t="s">
+      <c r="E31" s="102" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="105" t="s">
+      <c r="A32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="102" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="38"/>
-      <c r="D33" s="105" t="s">
+      <c r="A33" s="35"/>
+      <c r="D33" s="102" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="38"/>
-      <c r="D34" s="105" t="s">
+      <c r="A34" s="35"/>
+      <c r="D34" s="102" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="38"/>
-      <c r="C35" s="105" t="s">
+      <c r="A35" s="35"/>
+      <c r="C35" s="102" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="105" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="105" t="s">
+      <c r="C36" s="102" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="38"/>
-      <c r="C37" s="105" t="s">
+      <c r="A37" s="35"/>
+      <c r="C37" s="102" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3853,80 +3958,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104" t="s">
+      <c r="A7" s="101"/>
+      <c r="B7" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3953,619 +4058,619 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="28.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="1" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="1" t="s">
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="1" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="1" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="1" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="104"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104" t="s">
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="1" t="s">
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="1" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="1" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="1" t="s">
+      <c r="A16" s="101"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="1" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="1" t="s">
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104" t="s">
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="1" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104" t="s">
+      <c r="A21" s="101"/>
+      <c r="B21" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="1" t="s">
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="1" t="s">
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104" t="s">
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="1" t="s">
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="1" t="s">
+      <c r="A26" s="101"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="1" t="s">
+      <c r="A27" s="101"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="104"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104" t="s">
+      <c r="A28" s="101"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="1" t="s">
+      <c r="A29" s="101"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="1" t="s">
+      <c r="A30" s="101"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104" t="s">
+      <c r="A31" s="101"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="1" t="s">
+      <c r="A32" s="101"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="1" t="s">
+      <c r="A33" s="101"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="1" t="s">
+      <c r="A34" s="101"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104" t="s">
+      <c r="A35" s="101"/>
+      <c r="B35" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="104"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104" t="s">
+      <c r="A36" s="101"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="104"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="1" t="s">
+      <c r="A37" s="101"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="104"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="104" t="s">
+      <c r="A38" s="101"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="104"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="1" t="s">
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="104"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="1" t="s">
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="104"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104" t="s">
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="104"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="1" t="s">
+      <c r="A42" s="101"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="104"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104" t="s">
+      <c r="A43" s="101"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="104"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="1" t="s">
+      <c r="A44" s="101"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="104"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="1" t="s">
+      <c r="A45" s="101"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="104"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104" t="s">
+      <c r="A46" s="101"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="104"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="1" t="s">
+      <c r="A47" s="101"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="104"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="1" t="s">
+      <c r="A48" s="101"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="104"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="104" t="s">
+      <c r="A49" s="101"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="104"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="1" t="s">
+      <c r="A50" s="101"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="104"/>
-      <c r="B51" s="104" t="s">
+      <c r="A51" s="101"/>
+      <c r="B51" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="104"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="104" t="s">
+      <c r="A52" s="101"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="104"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="1" t="s">
+      <c r="A53" s="101"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="104"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="1" t="s">
+      <c r="A54" s="101"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="104"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="1" t="s">
+      <c r="A55" s="101"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="104"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="1" t="s">
+      <c r="A56" s="101"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="104"/>
-      <c r="B57" s="104" t="s">
+      <c r="A57" s="101"/>
+      <c r="B57" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="104"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="1" t="s">
+      <c r="A58" s="101"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="104"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="1" t="s">
+      <c r="A59" s="101"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="104"/>
-      <c r="B60" s="104" t="s">
+      <c r="A60" s="101"/>
+      <c r="B60" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="104"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="1" t="s">
+      <c r="A61" s="101"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="104"/>
-      <c r="B62" s="104" t="s">
+      <c r="A62" s="101"/>
+      <c r="B62" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="104"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="104" t="s">
+      <c r="A63" s="101"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="104"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="1" t="s">
+      <c r="A64" s="101"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="104"/>
-      <c r="B65" s="104"/>
-      <c r="C65" s="104"/>
-      <c r="D65" s="1" t="s">
+      <c r="A65" s="101"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="104"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="1" t="s">
+      <c r="A66" s="101"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="104"/>
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="1" t="s">
+      <c r="A67" s="101"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="104"/>
-      <c r="B68" s="104"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="1" t="s">
+      <c r="A68" s="101"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4615,9 +4720,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="36" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="33" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="34" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="5.25" customWidth="1"/>
     <col min="11" max="11" width="23.5" customWidth="1"/>
@@ -4625,472 +4730,472 @@
   </cols>
   <sheetData>
     <row r="2" ht="15" spans="2:12">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88">
+      <c r="J2" s="84"/>
+      <c r="K2" s="85">
         <v>43568</v>
       </c>
-      <c r="L2" s="89">
+      <c r="L2" s="86">
         <v>43569</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="40">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="38">
         <v>3709</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="41">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="J3" s="90" t="s">
+      <c r="F3" s="2"/>
+      <c r="J3" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="45">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="43">
         <v>3708</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="46">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94" t="s">
+      <c r="J4" s="90"/>
+      <c r="K4" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="92" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="45">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="47">
         <v>840</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="49">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="45"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="48" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="56">
+      <c r="A7" s="53">
         <v>4</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="47">
         <v>600</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="49">
         <v>12</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="88">
+      <c r="F7" s="2"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="85">
         <v>43575</v>
       </c>
-      <c r="L7" s="89">
+      <c r="L7" s="86">
         <v>43576</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="57"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="48" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="1"/>
-      <c r="J8" s="76" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="2"/>
+      <c r="J8" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="K8" s="99" t="s">
+      <c r="K8" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="L8" s="100" t="s">
+      <c r="L8" s="97" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="45">
+      <c r="A9" s="42">
         <v>5</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="43">
         <v>87</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="46">
         <v>6</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="J9" s="96" t="s">
+      <c r="F9" s="2"/>
+      <c r="J9" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="95" t="s">
+      <c r="K9" s="91"/>
+      <c r="L9" s="92" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="45">
+      <c r="A10" s="42">
         <v>6</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="43">
         <v>8681</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="46">
         <v>3</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43">
         <v>8682</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="46">
         <v>3</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88">
+      <c r="F11" s="2"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85">
         <v>43582</v>
       </c>
-      <c r="L11" s="89">
+      <c r="L11" s="86">
         <v>43583</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="45">
+      <c r="A12" s="42">
         <v>7</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="43">
         <v>603</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="46">
         <v>4</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="J12" s="76" t="s">
+      <c r="F12" s="2"/>
+      <c r="J12" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="100" t="s">
+      <c r="K12" s="98"/>
+      <c r="L12" s="97" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:12">
-      <c r="A13" s="58">
+      <c r="A13" s="55">
         <v>8</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="56">
         <v>604</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="59">
         <v>6</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="J13" s="96" t="s">
+      <c r="F13" s="2"/>
+      <c r="J13" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="40">
+      <c r="A14" s="37">
         <v>9</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="60">
         <v>830</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="41">
         <v>4</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="36" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45">
+      <c r="A15" s="42">
         <v>10</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="62">
         <v>831</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="46">
         <v>4</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="45">
+      <c r="A16" s="42">
         <v>11</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="62">
         <v>832</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="46">
         <v>4</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="88">
+      <c r="F16" s="2"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85">
         <v>43757</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="86">
         <v>43758</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:12">
-      <c r="A17" s="45">
+      <c r="A17" s="42">
         <v>12</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="62">
         <v>9075</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="46">
         <v>4</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="J17" s="90" t="s">
+      <c r="F17" s="2"/>
+      <c r="J17" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="K17" s="91" t="s">
+      <c r="K17" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="92" t="s">
+      <c r="L17" s="89" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="68">
+      <c r="A18" s="65">
         <v>13</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="60">
         <v>795</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="68">
         <v>10</v>
       </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94" t="s">
+      <c r="J18" s="90"/>
+      <c r="K18" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="L18" s="95" t="s">
+      <c r="L18" s="92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="72"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="J19" s="96" t="s">
+      <c r="E19" s="72"/>
+      <c r="J19" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="94" t="s">
+      <c r="K19" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="L19" s="95" t="s">
+      <c r="L19" s="92" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="72">
+      <c r="A20" s="69">
         <v>14</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="62">
         <v>593</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="72">
         <v>8</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="74" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:12">
-      <c r="A21" s="78">
+      <c r="A21" s="75">
         <v>15</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="56">
         <v>594</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="78">
         <v>8</v>
       </c>
-      <c r="J21" s="87"/>
-      <c r="K21" s="88">
+      <c r="J21" s="84"/>
+      <c r="K21" s="85">
         <v>43764</v>
       </c>
-      <c r="L21" s="89">
+      <c r="L21" s="86">
         <v>43765</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:12">
-      <c r="A22" s="82">
+      <c r="A22" s="79">
         <v>16</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="80">
         <v>10233</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="101"/>
-      <c r="L22" s="100" t="s">
+      <c r="K22" s="98"/>
+      <c r="L22" s="97" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5098,11 +5203,11 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="J23" s="96" t="s">
+      <c r="J23" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="98"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="95"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24"/>
@@ -5113,11 +5218,11 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="88">
+      <c r="J25" s="84"/>
+      <c r="K25" s="85">
         <v>43771</v>
       </c>
-      <c r="L25" s="89">
+      <c r="L25" s="86">
         <v>43772</v>
       </c>
     </row>
@@ -5125,25 +5230,25 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="J26" s="76" t="s">
+      <c r="J26" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="101"/>
-      <c r="L26" s="102"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="99"/>
     </row>
     <row r="27" spans="10:12">
-      <c r="J27" s="90" t="s">
+      <c r="J27" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="K27" s="103"/>
-      <c r="L27" s="92" t="s">
+      <c r="K27" s="100"/>
+      <c r="L27" s="89" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="28" spans="10:12">
-      <c r="J28" s="93"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="95" t="s">
+      <c r="J28" s="90"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="92" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5482,7 +5587,7 @@
       <c r="B21" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="32" t="s">
         <v>266</v>
       </c>
       <c r="F21" t="s">
@@ -5509,7 +5614,7 @@
       <c r="D24" t="s">
         <v>272</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="32" t="s">
         <v>273</v>
       </c>
       <c r="J24" t="s">
@@ -5554,51 +5659,51 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="39.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="34.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.75" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="2" customWidth="1"/>
+    <col min="8" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="39.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="40.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="34.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="27.75" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="5">
@@ -5612,10 +5717,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="8">
@@ -5624,127 +5729,127 @@
       <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>3708</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="G3" s="11"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>15</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
         <v>14</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
         <v>14</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="29"/>
+      <c r="G5" s="11"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="12"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
       <c r="K7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
-      <c r="K8" s="32" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="K8" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="29" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="12"/>
-      <c r="K9" s="32" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="K9" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="29" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5755,17 +5860,17 @@
       <c r="B10" s="9">
         <v>4</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>34</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <v>6</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8">
@@ -5774,18 +5879,18 @@
       <c r="B11" s="9">
         <v>5</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>315</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
         <v>6</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="K11" s="1" t="s">
+      <c r="G11" s="11"/>
+      <c r="K11" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5796,27 +5901,27 @@
       <c r="B12" s="9">
         <v>6</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>316</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
         <v>6</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="K12" s="32" t="s">
+      <c r="G12" s="11"/>
+      <c r="K12" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="30" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5827,24 +5932,24 @@
       <c r="B13" s="9">
         <v>7</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>1848</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
         <v>4</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="K13" s="32" t="s">
+      <c r="G13" s="11"/>
+      <c r="K13" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="M13" s="30" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5855,17 +5960,17 @@
       <c r="B14" s="9">
         <v>8</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>318</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8">
@@ -5874,17 +5979,17 @@
       <c r="B15" s="9">
         <v>9</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>319</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
         <v>4</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8">
@@ -5893,19 +5998,19 @@
       <c r="B16" s="9">
         <v>10</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>320</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
         <v>4</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
+      <c r="G16" s="11"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8">
@@ -5914,326 +6019,326 @@
       <c r="B17" s="9">
         <v>11</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>261</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
         <v>5</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>12</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>12</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="17">
         <v>24</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17">
         <v>4</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="18" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>13</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>13</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>40</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
         <v>6</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="L19" s="1" t="s">
+      <c r="G19" s="20"/>
+      <c r="L19" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="22">
+      <c r="A20" s="19">
         <v>14</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>14</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>67</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13">
         <v>6</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="L20" s="1" t="s">
+      <c r="G20" s="20"/>
+      <c r="L20" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="22">
+      <c r="A21" s="19">
         <v>15</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>15</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>107</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13">
         <v>6</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="L21" s="1" t="s">
+      <c r="G21" s="20"/>
+      <c r="L21" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>16</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>16</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>144</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13">
         <v>5</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="L22" s="1" t="s">
+      <c r="G22" s="20"/>
+      <c r="L22" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="24">
+      <c r="A23" s="21">
         <v>17</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>17</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>277</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9">
         <v>6</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="L23" s="1" t="s">
+      <c r="G23" s="20"/>
+      <c r="L23" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>18</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>18</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>312</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
         <v>6</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="L24" s="1" t="s">
+      <c r="G24" s="20"/>
+      <c r="L24" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="22">
+      <c r="A25" s="19">
         <v>19</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>19</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>321</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13">
         <v>5</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="L25" s="1" t="s">
+      <c r="G25" s="20"/>
+      <c r="L25" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="22">
+      <c r="A26" s="19">
         <v>20</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>20</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>322</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13">
         <v>5</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="L26" s="1" t="s">
+      <c r="G26" s="20"/>
+      <c r="L26" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="22">
+      <c r="A27" s="19">
         <v>21</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>21</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>323</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13">
         <v>4</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="L27" s="1" t="s">
+      <c r="G27" s="20"/>
+      <c r="L27" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="25">
+      <c r="A28" s="22">
         <v>22</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>22</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="23">
         <v>341</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23">
         <v>6</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="L28" s="1" t="s">
+      <c r="G28" s="24"/>
+      <c r="L28" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13">
         <v>10304</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30" spans="12:12">
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="25"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="25"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="25"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="25"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="25"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="25"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="25"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="25" t="s">
         <v>337</v>
       </c>
     </row>
